--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>18986.85008088231</v>
+        <v>19254.98261267409</v>
       </c>
       <c r="AB2" t="n">
-        <v>25978.64592137251</v>
+        <v>26345.51668054249</v>
       </c>
       <c r="AC2" t="n">
-        <v>23499.28041589429</v>
+        <v>23831.13754471541</v>
       </c>
       <c r="AD2" t="n">
-        <v>18986850.08088231</v>
+        <v>19254982.61267409</v>
       </c>
       <c r="AE2" t="n">
-        <v>25978645.92137251</v>
+        <v>26345516.68054248</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.648569531909897e-07</v>
+        <v>6.750808882183035e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.64583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>23499280.41589429</v>
+        <v>23831137.54471541</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6281.586041320356</v>
+        <v>6415.652396724797</v>
       </c>
       <c r="AB3" t="n">
-        <v>8594.743145752715</v>
+        <v>8778.17864780725</v>
       </c>
       <c r="AC3" t="n">
-        <v>7774.472922719518</v>
+        <v>7940.401597911305</v>
       </c>
       <c r="AD3" t="n">
-        <v>6281586.041320357</v>
+        <v>6415652.396724797</v>
       </c>
       <c r="AE3" t="n">
-        <v>8594743.145752715</v>
+        <v>8778178.64780725</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.887203822529638e-07</v>
+        <v>1.274313024101804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.06666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>7774472.922719519</v>
+        <v>7940401.597911305</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4807.874068859437</v>
+        <v>4929.744734141648</v>
       </c>
       <c r="AB4" t="n">
-        <v>6578.345409447915</v>
+        <v>6745.09423024134</v>
       </c>
       <c r="AC4" t="n">
-        <v>5950.517356335727</v>
+        <v>6101.351903706059</v>
       </c>
       <c r="AD4" t="n">
-        <v>4807874.068859437</v>
+        <v>4929744.734141648</v>
       </c>
       <c r="AE4" t="n">
-        <v>6578345.409447915</v>
+        <v>6745094.23024134</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.077620750973652e-07</v>
+        <v>1.49457132269682e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>5950517.356335727</v>
+        <v>6101351.903706059</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4238.127692252745</v>
+        <v>4347.717505575256</v>
       </c>
       <c r="AB5" t="n">
-        <v>5798.793281538426</v>
+        <v>5948.738898887638</v>
       </c>
       <c r="AC5" t="n">
-        <v>5245.364589405668</v>
+        <v>5380.999607485061</v>
       </c>
       <c r="AD5" t="n">
-        <v>4238127.692252745</v>
+        <v>4347717.505575255</v>
       </c>
       <c r="AE5" t="n">
-        <v>5798793.281538426</v>
+        <v>5948738.898887638</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.709300322072007e-07</v>
+        <v>1.611448581632656e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.446875</v>
       </c>
       <c r="AH5" t="n">
-        <v>5245364.589405668</v>
+        <v>5380999.607485062</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3919.194969036737</v>
+        <v>4028.870033705269</v>
       </c>
       <c r="AB6" t="n">
-        <v>5362.415459315546</v>
+        <v>5512.477721317407</v>
       </c>
       <c r="AC6" t="n">
-        <v>4850.634054075633</v>
+        <v>4986.374584405739</v>
       </c>
       <c r="AD6" t="n">
-        <v>3919194.969036737</v>
+        <v>4028870.033705269</v>
       </c>
       <c r="AE6" t="n">
-        <v>5362415.459315546</v>
+        <v>5512477.721317407</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.106105964886677e-07</v>
+        <v>1.684868014497661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.68958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4850634.054075633</v>
+        <v>4986374.58440574</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3724.170337425484</v>
+        <v>3821.649890988888</v>
       </c>
       <c r="AB7" t="n">
-        <v>5095.574154465498</v>
+        <v>5228.949980145346</v>
       </c>
       <c r="AC7" t="n">
-        <v>4609.259708846362</v>
+        <v>4729.906332917467</v>
       </c>
       <c r="AD7" t="n">
-        <v>3724170.337425484</v>
+        <v>3821649.890988888</v>
       </c>
       <c r="AE7" t="n">
-        <v>5095574.154465498</v>
+        <v>5228949.980145345</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.370156778671439e-07</v>
+        <v>1.733724328279154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.21666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4609259.708846361</v>
+        <v>4729906.332917467</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3567.65980770931</v>
+        <v>3677.24953152327</v>
       </c>
       <c r="AB8" t="n">
-        <v>4881.429542950558</v>
+        <v>5031.375037830222</v>
       </c>
       <c r="AC8" t="n">
-        <v>4415.552758500566</v>
+        <v>4551.187665798733</v>
       </c>
       <c r="AD8" t="n">
-        <v>3567659.80770931</v>
+        <v>3677249.531523271</v>
       </c>
       <c r="AE8" t="n">
-        <v>4881429.542950558</v>
+        <v>5031375.037830222</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.568559600078776e-07</v>
+        <v>1.770434044711657e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.88229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4415552.758500566</v>
+        <v>4551187.665798733</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3457.040669041501</v>
+        <v>3554.605473950927</v>
       </c>
       <c r="AB9" t="n">
-        <v>4730.075557253282</v>
+        <v>4863.568027585779</v>
       </c>
       <c r="AC9" t="n">
-        <v>4278.64378477159</v>
+        <v>4399.395921093407</v>
       </c>
       <c r="AD9" t="n">
-        <v>3457040.669041501</v>
+        <v>3554605.473950927</v>
       </c>
       <c r="AE9" t="n">
-        <v>4730075.557253282</v>
+        <v>4863568.027585779</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.718820560409332e-07</v>
+        <v>1.798236256421567e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.63541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4278643.78477159</v>
+        <v>4399395.921093407</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3369.344182343119</v>
+        <v>3466.738395051952</v>
       </c>
       <c r="AB10" t="n">
-        <v>4610.085355256607</v>
+        <v>4743.344413814258</v>
       </c>
       <c r="AC10" t="n">
-        <v>4170.105279246176</v>
+        <v>4290.646280285342</v>
       </c>
       <c r="AD10" t="n">
-        <v>3369344.182343118</v>
+        <v>3466738.395051952</v>
       </c>
       <c r="AE10" t="n">
-        <v>4610085.355256607</v>
+        <v>4743344.413814258</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.834069258138593e-07</v>
+        <v>1.819560282878682e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.45416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4170105.279246176</v>
+        <v>4290646.280285342</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3288.708566480368</v>
+        <v>3386.102779189201</v>
       </c>
       <c r="AB11" t="n">
-        <v>4499.756148240881</v>
+        <v>4633.015206798532</v>
       </c>
       <c r="AC11" t="n">
-        <v>4070.305736900021</v>
+        <v>4190.846737939187</v>
       </c>
       <c r="AD11" t="n">
-        <v>3288708.566480367</v>
+        <v>3386102.779189201</v>
       </c>
       <c r="AE11" t="n">
-        <v>4499756.148240881</v>
+        <v>4633015.206798532</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.931811824567206e-07</v>
+        <v>1.8376452167094e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.30104166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>4070305.736900021</v>
+        <v>4190846.737939187</v>
       </c>
     </row>
     <row r="12">
@@ -6862,28 +6862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3223.067149738845</v>
+        <v>3320.461362447678</v>
       </c>
       <c r="AB12" t="n">
-        <v>4409.942665960201</v>
+        <v>4543.201724517851</v>
       </c>
       <c r="AC12" t="n">
-        <v>3989.063927314198</v>
+        <v>4109.604928353364</v>
       </c>
       <c r="AD12" t="n">
-        <v>3223067.149738845</v>
+        <v>3320461.362447678</v>
       </c>
       <c r="AE12" t="n">
-        <v>4409942.665960201</v>
+        <v>4543201.724517851</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.000767172687001e-06</v>
+        <v>1.851681284757122e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.18541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3989063.927314198</v>
+        <v>4109604.928353364</v>
       </c>
     </row>
     <row r="13">
@@ -6968,28 +6968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3156.859078722582</v>
+        <v>3242.22837252688</v>
       </c>
       <c r="AB13" t="n">
-        <v>4319.353862301797</v>
+        <v>4436.159896312281</v>
       </c>
       <c r="AC13" t="n">
-        <v>3907.120791934771</v>
+        <v>4012.779021997588</v>
       </c>
       <c r="AD13" t="n">
-        <v>3156859.078722582</v>
+        <v>3242228.37252688</v>
       </c>
       <c r="AE13" t="n">
-        <v>4319353.862301797</v>
+        <v>4436159.896312281</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.007477856352249e-06</v>
+        <v>1.864097806491645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.08333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3907120.791934771</v>
+        <v>4012779.021997588</v>
       </c>
     </row>
     <row r="14">
@@ -7074,28 +7074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3089.282719382284</v>
+        <v>3186.762183437138</v>
       </c>
       <c r="AB14" t="n">
-        <v>4226.892906193829</v>
+        <v>4360.268609404129</v>
       </c>
       <c r="AC14" t="n">
-        <v>3823.484179707984</v>
+        <v>3944.130692997863</v>
       </c>
       <c r="AD14" t="n">
-        <v>3089282.719382284</v>
+        <v>3186762.183437138</v>
       </c>
       <c r="AE14" t="n">
-        <v>4226892.906193829</v>
+        <v>4360268.609404129</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.013313233452465e-06</v>
+        <v>1.874894781912969e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.996875</v>
       </c>
       <c r="AH14" t="n">
-        <v>3823484.179707984</v>
+        <v>3944130.692997863</v>
       </c>
     </row>
     <row r="15">
@@ -7180,28 +7180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3038.875040108239</v>
+        <v>3136.354504163093</v>
       </c>
       <c r="AB15" t="n">
-        <v>4157.922895581217</v>
+        <v>4291.298598791517</v>
       </c>
       <c r="AC15" t="n">
-        <v>3761.096570108224</v>
+        <v>3881.743083398102</v>
       </c>
       <c r="AD15" t="n">
-        <v>3038875.040108239</v>
+        <v>3136354.504163093</v>
       </c>
       <c r="AE15" t="n">
-        <v>4157922.895581217</v>
+        <v>4291298.598791517</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.017835650705132e-06</v>
+        <v>1.883262437864496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.93020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>3761096.570108224</v>
+        <v>3881743.083398102</v>
       </c>
     </row>
     <row r="16">
@@ -7286,28 +7286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2984.959719521503</v>
+        <v>3082.439183576358</v>
       </c>
       <c r="AB16" t="n">
-        <v>4084.153575378369</v>
+        <v>4217.529278588669</v>
       </c>
       <c r="AC16" t="n">
-        <v>3694.367690289647</v>
+        <v>3815.014203579526</v>
       </c>
       <c r="AD16" t="n">
-        <v>2984959.719521503</v>
+        <v>3082439.183576358</v>
       </c>
       <c r="AE16" t="n">
-        <v>4084153.575378369</v>
+        <v>4217529.278588668</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.022066299102788e-06</v>
+        <v>1.891090245044956e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.86770833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3694367.690289647</v>
+        <v>3815014.203579526</v>
       </c>
     </row>
     <row r="17">
@@ -7392,28 +7392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2931.821701030084</v>
+        <v>3029.301165084938</v>
       </c>
       <c r="AB17" t="n">
-        <v>4011.447794194479</v>
+        <v>4144.823497404779</v>
       </c>
       <c r="AC17" t="n">
-        <v>3628.600846818746</v>
+        <v>3749.247360108625</v>
       </c>
       <c r="AD17" t="n">
-        <v>2931821.701030084</v>
+        <v>3029301.165084938</v>
       </c>
       <c r="AE17" t="n">
-        <v>4011447.794194479</v>
+        <v>4144823.497404779</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.025713409790423e-06</v>
+        <v>1.897838354683284e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.81458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3628600.846818746</v>
+        <v>3749247.360108625</v>
       </c>
     </row>
     <row r="18">
@@ -7498,28 +7498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2883.243501726836</v>
+        <v>2980.722965781691</v>
       </c>
       <c r="AB18" t="n">
-        <v>3944.980958788873</v>
+        <v>4078.356661999173</v>
       </c>
       <c r="AC18" t="n">
-        <v>3568.477512897464</v>
+        <v>3689.124026187343</v>
       </c>
       <c r="AD18" t="n">
-        <v>2883243.501726836</v>
+        <v>2980722.965781691</v>
       </c>
       <c r="AE18" t="n">
-        <v>3944980.958788873</v>
+        <v>4078356.661999173</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.029360520478058e-06</v>
+        <v>1.904586464321611e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.7625</v>
       </c>
       <c r="AH18" t="n">
-        <v>3568477.512897464</v>
+        <v>3689124.026187343</v>
       </c>
     </row>
     <row r="19">
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2854.135073462377</v>
+        <v>2951.61453751723</v>
       </c>
       <c r="AB19" t="n">
-        <v>3905.153523064214</v>
+        <v>4038.529226274513</v>
       </c>
       <c r="AC19" t="n">
-        <v>3532.451151740211</v>
+        <v>3653.097665030089</v>
       </c>
       <c r="AD19" t="n">
-        <v>2854135.073462376</v>
+        <v>2951614.53751723</v>
       </c>
       <c r="AE19" t="n">
-        <v>3905153.523064214</v>
+        <v>4038529.226274513</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.031257018035628e-06</v>
+        <v>1.908095481333542e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.73645833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>3532451.151740211</v>
+        <v>3653097.665030089</v>
       </c>
     </row>
     <row r="20">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2844.294308235817</v>
+        <v>2941.77377229067</v>
       </c>
       <c r="AB20" t="n">
-        <v>3891.688953937312</v>
+        <v>4025.064657147612</v>
       </c>
       <c r="AC20" t="n">
-        <v>3520.27162219314</v>
+        <v>3640.918135483018</v>
       </c>
       <c r="AD20" t="n">
-        <v>2844294.308235817</v>
+        <v>2941773.77229067</v>
       </c>
       <c r="AE20" t="n">
-        <v>3891688.953937313</v>
+        <v>4025064.657147612</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.032132324600661e-06</v>
+        <v>1.909715027646741e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.72291666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>3520271.62219314</v>
+        <v>3640918.135483019</v>
       </c>
     </row>
     <row r="21">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2850.242874137638</v>
+        <v>2947.722338192492</v>
       </c>
       <c r="AB21" t="n">
-        <v>3899.828044236391</v>
+        <v>4033.203747446691</v>
       </c>
       <c r="AC21" t="n">
-        <v>3527.633929137359</v>
+        <v>3648.280442427238</v>
       </c>
       <c r="AD21" t="n">
-        <v>2850242.874137638</v>
+        <v>2947722.338192492</v>
       </c>
       <c r="AE21" t="n">
-        <v>3899828.044236391</v>
+        <v>4033203.747446691</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.032715862310682e-06</v>
+        <v>1.910794725188873e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.715625</v>
       </c>
       <c r="AH21" t="n">
-        <v>3527633.929137359</v>
+        <v>3648280.442427238</v>
       </c>
     </row>
     <row r="22">
@@ -7922,28 +7922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2862.136924561143</v>
+        <v>2959.616388615997</v>
       </c>
       <c r="AB22" t="n">
-        <v>3916.102008754302</v>
+        <v>4049.477711964601</v>
       </c>
       <c r="AC22" t="n">
-        <v>3542.354729322333</v>
+        <v>3663.001242612212</v>
       </c>
       <c r="AD22" t="n">
-        <v>2862136.924561143</v>
+        <v>2959616.388615997</v>
       </c>
       <c r="AE22" t="n">
-        <v>3916102.008754302</v>
+        <v>4049477.711964602</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.032715862310682e-06</v>
+        <v>1.910794725188873e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.715625</v>
       </c>
       <c r="AH22" t="n">
-        <v>3542354.729322333</v>
+        <v>3663001.242612211</v>
       </c>
     </row>
     <row r="23">
@@ -8028,28 +8028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2875.748558929222</v>
+        <v>2973.228022984075</v>
       </c>
       <c r="AB23" t="n">
-        <v>3934.726047399636</v>
+        <v>4068.101750609936</v>
       </c>
       <c r="AC23" t="n">
-        <v>3559.201315858359</v>
+        <v>3679.847829148236</v>
       </c>
       <c r="AD23" t="n">
-        <v>2875748.558929222</v>
+        <v>2973228.022984075</v>
       </c>
       <c r="AE23" t="n">
-        <v>3934726.047399636</v>
+        <v>4068101.750609936</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.032569977883177e-06</v>
+        <v>1.91052480080334e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.71666666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>3559201.315858359</v>
+        <v>3679847.829148236</v>
       </c>
     </row>
   </sheetData>
@@ -8325,28 +8325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11383.88101586117</v>
+        <v>11583.77878126279</v>
       </c>
       <c r="AB2" t="n">
-        <v>15575.92822728756</v>
+        <v>15849.43716877708</v>
       </c>
       <c r="AC2" t="n">
-        <v>14089.38349822722</v>
+        <v>14336.78913021318</v>
       </c>
       <c r="AD2" t="n">
-        <v>11383881.01586117</v>
+        <v>11583778.78126279</v>
       </c>
       <c r="AE2" t="n">
-        <v>15575928.22728756</v>
+        <v>15849437.16877708</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.79760054091092e-07</v>
+        <v>9.144967056175343e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.771875</v>
       </c>
       <c r="AH2" t="n">
-        <v>14089383.49822722</v>
+        <v>14336789.13021317</v>
       </c>
     </row>
     <row r="3">
@@ -8431,28 +8431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4908.357097069314</v>
+        <v>5025.908967050465</v>
       </c>
       <c r="AB3" t="n">
-        <v>6715.830721643015</v>
+        <v>6876.670376173727</v>
       </c>
       <c r="AC3" t="n">
-        <v>6074.881263296768</v>
+        <v>6220.370606938937</v>
       </c>
       <c r="AD3" t="n">
-        <v>4908357.097069314</v>
+        <v>5025908.967050465</v>
       </c>
       <c r="AE3" t="n">
-        <v>6715830.721643015</v>
+        <v>6876670.376173727</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.773652213347641e-07</v>
+        <v>1.481778084503277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.22395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>6074881.263296768</v>
+        <v>6220370.606938938</v>
       </c>
     </row>
     <row r="4">
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3920.67241831116</v>
+        <v>4026.545827505614</v>
       </c>
       <c r="AB4" t="n">
-        <v>5364.436970593271</v>
+        <v>5509.297639858298</v>
       </c>
       <c r="AC4" t="n">
-        <v>4852.462635154222</v>
+        <v>4983.498005457815</v>
       </c>
       <c r="AD4" t="n">
-        <v>3920672.41831116</v>
+        <v>4026545.827505614</v>
       </c>
       <c r="AE4" t="n">
-        <v>5364436.970593272</v>
+        <v>5509297.639858298</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.848169855728444e-07</v>
+        <v>1.68659773042957e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.76666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4852462.635154222</v>
+        <v>4983498.005457815</v>
       </c>
     </row>
     <row r="5">
@@ -8643,28 +8643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3511.267501330602</v>
+        <v>3617.055569670486</v>
       </c>
       <c r="AB5" t="n">
-        <v>4804.271101510232</v>
+        <v>4949.015003653061</v>
       </c>
       <c r="AC5" t="n">
-        <v>4345.758210418754</v>
+        <v>4476.687957690408</v>
       </c>
       <c r="AD5" t="n">
-        <v>3511267.501330602</v>
+        <v>3617055.569670485</v>
       </c>
       <c r="AE5" t="n">
-        <v>4804271.101510232</v>
+        <v>4949015.003653062</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.408065986800463e-07</v>
+        <v>1.793322574023186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4345758.210418754</v>
+        <v>4476687.957690408</v>
       </c>
     </row>
     <row r="6">
@@ -8749,28 +8749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3280.293863375617</v>
+        <v>3374.318309091334</v>
       </c>
       <c r="AB6" t="n">
-        <v>4488.242780222459</v>
+        <v>4616.891174916501</v>
       </c>
       <c r="AC6" t="n">
-        <v>4059.891188566165</v>
+        <v>4176.261561029757</v>
       </c>
       <c r="AD6" t="n">
-        <v>3280293.863375617</v>
+        <v>3374318.309091334</v>
       </c>
       <c r="AE6" t="n">
-        <v>4488242.78022246</v>
+        <v>4616891.174916501</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.758189712969489e-07</v>
+        <v>1.86006155977445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.11041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4059891.188566165</v>
+        <v>4176261.561029757</v>
       </c>
     </row>
     <row r="7">
@@ -8855,28 +8855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3113.58285341477</v>
+        <v>3207.692550476508</v>
       </c>
       <c r="AB7" t="n">
-        <v>4260.141421623331</v>
+        <v>4388.906460970021</v>
       </c>
       <c r="AC7" t="n">
-        <v>3853.559503489477</v>
+        <v>3970.035388203782</v>
       </c>
       <c r="AD7" t="n">
-        <v>3113582.85341477</v>
+        <v>3207692.550476508</v>
       </c>
       <c r="AE7" t="n">
-        <v>4260141.421623331</v>
+        <v>4388906.460970021</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.99210858174621e-07</v>
+        <v>1.904650106289303e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.73229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3853559.503489477</v>
+        <v>3970035.388203782</v>
       </c>
     </row>
     <row r="8">
@@ -8961,28 +8961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2995.071713407141</v>
+        <v>3089.010818268288</v>
       </c>
       <c r="AB8" t="n">
-        <v>4097.989251522386</v>
+        <v>4226.520879094229</v>
       </c>
       <c r="AC8" t="n">
-        <v>3706.882908920972</v>
+        <v>3823.147658352626</v>
       </c>
       <c r="AD8" t="n">
-        <v>2995071.713407142</v>
+        <v>3089010.818268288</v>
       </c>
       <c r="AE8" t="n">
-        <v>4097989.251522386</v>
+        <v>4226520.879094229</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.01626429828544e-06</v>
+        <v>1.937156595038841e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.46979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3706882.908920972</v>
+        <v>3823147.658352626</v>
       </c>
     </row>
     <row r="9">
@@ -9067,28 +9067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2896.812800565537</v>
+        <v>2990.751905426682</v>
       </c>
       <c r="AB9" t="n">
-        <v>3963.547072095199</v>
+        <v>4092.078699667043</v>
       </c>
       <c r="AC9" t="n">
-        <v>3585.271702407537</v>
+        <v>3701.536451839192</v>
       </c>
       <c r="AD9" t="n">
-        <v>2896812.800565537</v>
+        <v>2990751.905426682</v>
       </c>
       <c r="AE9" t="n">
-        <v>3963547.072095199</v>
+        <v>4092078.699667043</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.029092107218357e-06</v>
+        <v>1.961608378611502e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.275</v>
       </c>
       <c r="AH9" t="n">
-        <v>3585271.702407537</v>
+        <v>3701536.451839192</v>
       </c>
     </row>
     <row r="10">
@@ -9173,28 +9173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2811.20340242265</v>
+        <v>2893.549476860222</v>
       </c>
       <c r="AB10" t="n">
-        <v>3846.412516736003</v>
+        <v>3959.082048633906</v>
       </c>
       <c r="AC10" t="n">
-        <v>3479.316304612447</v>
+        <v>3581.232814518691</v>
       </c>
       <c r="AD10" t="n">
-        <v>2811203.40242265</v>
+        <v>2893549.476860221</v>
       </c>
       <c r="AE10" t="n">
-        <v>3846412.516736003</v>
+        <v>3959082.048633906</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.039656185163112e-06</v>
+        <v>1.981745141553694e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.12083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3479316.304612447</v>
+        <v>3581232.814518691</v>
       </c>
     </row>
     <row r="11">
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2712.471071469294</v>
+        <v>2806.495427676461</v>
       </c>
       <c r="AB11" t="n">
-        <v>3711.322585762587</v>
+        <v>3839.97085798708</v>
       </c>
       <c r="AC11" t="n">
-        <v>3357.119167051229</v>
+        <v>3473.489428733596</v>
       </c>
       <c r="AD11" t="n">
-        <v>2712471.071469294</v>
+        <v>2806495.427676461</v>
       </c>
       <c r="AE11" t="n">
-        <v>3711322.585762587</v>
+        <v>3839970.85798708</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.048409278317337e-06</v>
+        <v>1.99842988799151e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.99479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3357119.167051229</v>
+        <v>3473489.428733596</v>
       </c>
     </row>
     <row r="12">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2653.851591668549</v>
+        <v>2747.875947875716</v>
       </c>
       <c r="AB12" t="n">
-        <v>3631.116827390273</v>
+        <v>3759.765099614765</v>
       </c>
       <c r="AC12" t="n">
-        <v>3284.568133688483</v>
+        <v>3400.938395370849</v>
       </c>
       <c r="AD12" t="n">
-        <v>2653851.591668549</v>
+        <v>2747875.947875716</v>
       </c>
       <c r="AE12" t="n">
-        <v>3631116.827390273</v>
+        <v>3759765.099614765</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.054294978886558e-06</v>
+        <v>2.009648941630731e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.91041666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3284568.133688483</v>
+        <v>3400938.395370849</v>
       </c>
     </row>
     <row r="13">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2584.231141890066</v>
+        <v>2678.255498097232</v>
       </c>
       <c r="AB13" t="n">
-        <v>3535.859056565873</v>
+        <v>3664.507328790366</v>
       </c>
       <c r="AC13" t="n">
-        <v>3198.401630816446</v>
+        <v>3314.771892498813</v>
       </c>
       <c r="AD13" t="n">
-        <v>2584231.141890066</v>
+        <v>2678255.498097232</v>
       </c>
       <c r="AE13" t="n">
-        <v>3535859.056565873</v>
+        <v>3664507.328790366</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.059878848657357e-06</v>
+        <v>2.02029265918589e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.83125</v>
       </c>
       <c r="AH13" t="n">
-        <v>3198401.630816447</v>
+        <v>3314771.892498813</v>
       </c>
     </row>
     <row r="14">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2546.589049799587</v>
+        <v>2640.613406006753</v>
       </c>
       <c r="AB14" t="n">
-        <v>3484.355485515777</v>
+        <v>3613.00375774027</v>
       </c>
       <c r="AC14" t="n">
-        <v>3151.813488301658</v>
+        <v>3268.183749984024</v>
       </c>
       <c r="AD14" t="n">
-        <v>2546589.049799587</v>
+        <v>2640613.406006753</v>
       </c>
       <c r="AE14" t="n">
-        <v>3484355.485515777</v>
+        <v>3613003.757740269</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.063349902839206e-06</v>
+        <v>2.02690902415261e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.78333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3151813.488301658</v>
+        <v>3268183.749984024</v>
       </c>
     </row>
     <row r="15">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2551.960200248141</v>
+        <v>2645.984556455307</v>
       </c>
       <c r="AB15" t="n">
-        <v>3491.704530517923</v>
+        <v>3620.352802742416</v>
       </c>
       <c r="AC15" t="n">
-        <v>3158.461150763248</v>
+        <v>3274.831412445615</v>
       </c>
       <c r="AD15" t="n">
-        <v>2551960.200248141</v>
+        <v>2645984.556455308</v>
       </c>
       <c r="AE15" t="n">
-        <v>3491704.530517923</v>
+        <v>3620352.802742416</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.063953564436049e-06</v>
+        <v>2.028059696320735e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.77604166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3158461.150763249</v>
+        <v>3274831.412445615</v>
       </c>
     </row>
     <row r="16">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2564.896152678924</v>
+        <v>2658.920508886091</v>
       </c>
       <c r="AB16" t="n">
-        <v>3509.404071327665</v>
+        <v>3638.052343552158</v>
       </c>
       <c r="AC16" t="n">
-        <v>3174.47147223957</v>
+        <v>3290.841733921936</v>
       </c>
       <c r="AD16" t="n">
-        <v>2564896.152678924</v>
+        <v>2658920.508886091</v>
       </c>
       <c r="AE16" t="n">
-        <v>3509404.071327665</v>
+        <v>3638052.343552158</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.063802649036838e-06</v>
+        <v>2.027772028278704e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.77604166666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>3174471.47223957</v>
+        <v>3290841.733921936</v>
       </c>
     </row>
     <row r="17">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2577.326736929567</v>
+        <v>2671.351093136733</v>
       </c>
       <c r="AB17" t="n">
-        <v>3526.412145098068</v>
+        <v>3655.060417322561</v>
       </c>
       <c r="AC17" t="n">
-        <v>3189.856319320306</v>
+        <v>3306.226581002672</v>
       </c>
       <c r="AD17" t="n">
-        <v>2577326.736929567</v>
+        <v>2671351.093136733</v>
       </c>
       <c r="AE17" t="n">
-        <v>3526412.145098068</v>
+        <v>3655060.417322561</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.063802649036838e-06</v>
+        <v>2.027772028278704e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.77708333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>3189856.319320306</v>
+        <v>3306226.581002672</v>
       </c>
     </row>
   </sheetData>
@@ -10212,28 +10212,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3626.257343422538</v>
+        <v>3741.269869971066</v>
       </c>
       <c r="AB2" t="n">
-        <v>4961.605276454227</v>
+        <v>5118.970489272499</v>
       </c>
       <c r="AC2" t="n">
-        <v>4488.076632525991</v>
+        <v>4630.423130296344</v>
       </c>
       <c r="AD2" t="n">
-        <v>3626257.343422538</v>
+        <v>3741269.869971066</v>
       </c>
       <c r="AE2" t="n">
-        <v>4961605.276454227</v>
+        <v>5118970.489272499</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.387984101797153e-07</v>
+        <v>1.786421097677589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4488076.632525991</v>
+        <v>4630423.130296345</v>
       </c>
     </row>
     <row r="3">
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2368.072577811896</v>
+        <v>2462.158219378042</v>
       </c>
       <c r="AB3" t="n">
-        <v>3240.101372951292</v>
+        <v>3368.83349850766</v>
       </c>
       <c r="AC3" t="n">
-        <v>2930.870645427536</v>
+        <v>3047.316757597473</v>
       </c>
       <c r="AD3" t="n">
-        <v>2368072.577811896</v>
+        <v>2462158.219378043</v>
       </c>
       <c r="AE3" t="n">
-        <v>3240101.372951292</v>
+        <v>3368833.49850766</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.048624312425033e-06</v>
+        <v>2.233295357405812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2930870.645427536</v>
+        <v>3047316.757597473</v>
       </c>
     </row>
     <row r="4">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2018.08846850689</v>
+        <v>2101.796008436417</v>
       </c>
       <c r="AB4" t="n">
-        <v>2761.237674390809</v>
+        <v>2875.770023438417</v>
       </c>
       <c r="AC4" t="n">
-        <v>2497.709026168367</v>
+        <v>2601.310568570032</v>
       </c>
       <c r="AD4" t="n">
-        <v>2018088.46850689</v>
+        <v>2101796.008436417</v>
       </c>
       <c r="AE4" t="n">
-        <v>2761237.674390809</v>
+        <v>2875770.023438417</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.121204540248252e-06</v>
+        <v>2.387872248210678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.64479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2497709.026168366</v>
+        <v>2601310.568570032</v>
       </c>
     </row>
     <row r="5">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1872.915131720596</v>
+        <v>1956.452079449531</v>
       </c>
       <c r="AB5" t="n">
-        <v>2562.605110404197</v>
+        <v>2676.904047676957</v>
       </c>
       <c r="AC5" t="n">
-        <v>2318.033675306081</v>
+        <v>2421.424082425095</v>
       </c>
       <c r="AD5" t="n">
-        <v>1872915.131720596</v>
+        <v>1956452.079449531</v>
       </c>
       <c r="AE5" t="n">
-        <v>2562605.110404197</v>
+        <v>2676904.047676957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.148990474333708e-06</v>
+        <v>2.447049016152217e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2318033.675306081</v>
+        <v>2421424.082425095</v>
       </c>
     </row>
     <row r="6">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1877.636101077498</v>
+        <v>1961.173048806432</v>
       </c>
       <c r="AB6" t="n">
-        <v>2569.064548952778</v>
+        <v>2683.363486225539</v>
       </c>
       <c r="AC6" t="n">
-        <v>2323.876634105465</v>
+        <v>2427.267041224479</v>
       </c>
       <c r="AD6" t="n">
-        <v>1877636.101077498</v>
+        <v>1961173.048806432</v>
       </c>
       <c r="AE6" t="n">
-        <v>2569064.548952778</v>
+        <v>2683363.486225539</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.150337671137851e-06</v>
+        <v>2.449918192779686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.24895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2323876.634105465</v>
+        <v>2427267.041224479</v>
       </c>
     </row>
     <row r="7">
@@ -10742,28 +10742,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1890.514201284029</v>
+        <v>1974.051149012963</v>
       </c>
       <c r="AB7" t="n">
-        <v>2586.684933797038</v>
+        <v>2700.983871069799</v>
       </c>
       <c r="AC7" t="n">
-        <v>2339.815354150554</v>
+        <v>2443.205761269568</v>
       </c>
       <c r="AD7" t="n">
-        <v>1890514.201284029</v>
+        <v>1974051.149012963</v>
       </c>
       <c r="AE7" t="n">
-        <v>2586684.933797038</v>
+        <v>2700983.871069799</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.151011269539922e-06</v>
+        <v>2.45135278109342e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.240625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2339815.354150554</v>
+        <v>2443205.761269568</v>
       </c>
     </row>
   </sheetData>
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5493.222782925441</v>
+        <v>5624.799084133824</v>
       </c>
       <c r="AB2" t="n">
-        <v>7516.069755484426</v>
+        <v>7696.098255534479</v>
       </c>
       <c r="AC2" t="n">
-        <v>6798.746606890864</v>
+        <v>6961.59343956772</v>
       </c>
       <c r="AD2" t="n">
-        <v>5493222.782925441</v>
+        <v>5624799.084133824</v>
       </c>
       <c r="AE2" t="n">
-        <v>7516069.755484426</v>
+        <v>7696098.255534479</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.949964183673421e-07</v>
+        <v>1.411083011552688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6798746.606890865</v>
+        <v>6961593.439567721</v>
       </c>
     </row>
     <row r="3">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3177.127320704784</v>
+        <v>3286.674599457644</v>
       </c>
       <c r="AB3" t="n">
-        <v>4347.085765153575</v>
+        <v>4496.9731848281</v>
       </c>
       <c r="AC3" t="n">
-        <v>3932.206000900345</v>
+        <v>4067.788375609441</v>
       </c>
       <c r="AD3" t="n">
-        <v>3177127.320704784</v>
+        <v>3286674.599457644</v>
       </c>
       <c r="AE3" t="n">
-        <v>4347085.765153576</v>
+        <v>4496973.1848281</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.406778133627516e-07</v>
+        <v>1.909901183230446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.840625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3932206.000900345</v>
+        <v>4067788.375609441</v>
       </c>
     </row>
     <row r="4">
@@ -11251,28 +11251,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2684.042197566954</v>
+        <v>2771.731314590537</v>
       </c>
       <c r="AB4" t="n">
-        <v>3672.424946296003</v>
+        <v>3792.405064778489</v>
       </c>
       <c r="AC4" t="n">
-        <v>3321.933863702158</v>
+        <v>3430.463248069824</v>
       </c>
       <c r="AD4" t="n">
-        <v>2684042.197566954</v>
+        <v>2771731.314590537</v>
       </c>
       <c r="AE4" t="n">
-        <v>3672424.946296003</v>
+        <v>3792405.064778489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.026384372141478e-06</v>
+        <v>2.083915129022293e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.34895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3321933.863702158</v>
+        <v>3430463.248069824</v>
       </c>
     </row>
     <row r="5">
@@ -11357,28 +11357,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2434.597840431417</v>
+        <v>2522.37220880102</v>
       </c>
       <c r="AB5" t="n">
-        <v>3331.124172154779</v>
+        <v>3451.220935289914</v>
       </c>
       <c r="AC5" t="n">
-        <v>3013.20635642634</v>
+        <v>3121.841253044719</v>
       </c>
       <c r="AD5" t="n">
-        <v>2434597.840431417</v>
+        <v>2522372.20880102</v>
       </c>
       <c r="AE5" t="n">
-        <v>3331124.172154779</v>
+        <v>3451220.935289913</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.070043164301318e-06</v>
+        <v>2.172557571333554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.68229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3013206.35642634</v>
+        <v>3121841.253044718</v>
       </c>
     </row>
     <row r="6">
@@ -11463,28 +11463,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2274.892844801668</v>
+        <v>2362.496620970679</v>
       </c>
       <c r="AB6" t="n">
-        <v>3112.608751446995</v>
+        <v>3232.472102807283</v>
       </c>
       <c r="AC6" t="n">
-        <v>2815.545740782597</v>
+        <v>2923.969502118324</v>
       </c>
       <c r="AD6" t="n">
-        <v>2274892.844801668</v>
+        <v>2362496.620970679</v>
       </c>
       <c r="AE6" t="n">
-        <v>3112608.751446995</v>
+        <v>3232472.102807282</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.096947290835242e-06</v>
+        <v>2.227182249805806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.29791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2815545.740782597</v>
+        <v>2923969.502118324</v>
       </c>
     </row>
     <row r="7">
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2149.166990943235</v>
+        <v>2225.969652775191</v>
       </c>
       <c r="AB7" t="n">
-        <v>2940.585091564499</v>
+        <v>3045.669881777462</v>
       </c>
       <c r="AC7" t="n">
-        <v>2659.93977756268</v>
+        <v>2754.995422885032</v>
       </c>
       <c r="AD7" t="n">
-        <v>2149166.990943235</v>
+        <v>2225969.652775191</v>
       </c>
       <c r="AE7" t="n">
-        <v>2940585.091564499</v>
+        <v>3045669.881777462</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.11466857178573e-06</v>
+        <v>2.263162576943219e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2659939.77756268</v>
+        <v>2754995.422885032</v>
       </c>
     </row>
     <row r="8">
@@ -11675,28 +11675,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2106.633427421634</v>
+        <v>2194.322454936667</v>
       </c>
       <c r="AB8" t="n">
-        <v>2882.388793505855</v>
+        <v>3002.368789518959</v>
       </c>
       <c r="AC8" t="n">
-        <v>2607.297652511735</v>
+        <v>2715.826926098218</v>
       </c>
       <c r="AD8" t="n">
-        <v>2106633.427421634</v>
+        <v>2194322.454936667</v>
       </c>
       <c r="AE8" t="n">
-        <v>2882388.793505854</v>
+        <v>3002368.789518959</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.1191794433004e-06</v>
+        <v>2.272321205669105e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.99479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2607297.652511735</v>
+        <v>2715826.926098218</v>
       </c>
     </row>
     <row r="9">
@@ -11781,28 +11781,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2116.40844308431</v>
+        <v>2204.097470599344</v>
       </c>
       <c r="AB9" t="n">
-        <v>2895.763401178784</v>
+        <v>3015.743397191889</v>
       </c>
       <c r="AC9" t="n">
-        <v>2619.395806399739</v>
+        <v>2727.925079986223</v>
       </c>
       <c r="AD9" t="n">
-        <v>2116408.44308431</v>
+        <v>2204097.470599344</v>
       </c>
       <c r="AE9" t="n">
-        <v>2895763.401178784</v>
+        <v>3015743.39719189</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.119662750962686e-06</v>
+        <v>2.273302487318307e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.9875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2619395.806399739</v>
+        <v>2727925.079986223</v>
       </c>
     </row>
   </sheetData>
@@ -12078,28 +12078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2566.094949291451</v>
+        <v>2666.474491406815</v>
       </c>
       <c r="AB2" t="n">
-        <v>3511.044317740098</v>
+        <v>3648.388035695202</v>
       </c>
       <c r="AC2" t="n">
-        <v>3175.955175836501</v>
+        <v>3300.191002113082</v>
       </c>
       <c r="AD2" t="n">
-        <v>2566094.949291451</v>
+        <v>2666474.491406815</v>
       </c>
       <c r="AE2" t="n">
-        <v>3511044.317740099</v>
+        <v>3648388.035695202</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.633335280723805e-07</v>
+        <v>2.14515560481956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.9125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3175955.175836501</v>
+        <v>3300191.002113082</v>
       </c>
     </row>
     <row r="3">
@@ -12184,28 +12184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1778.994429506022</v>
+        <v>1869.24214246982</v>
       </c>
       <c r="AB3" t="n">
-        <v>2434.098662145268</v>
+        <v>2557.579564470436</v>
       </c>
       <c r="AC3" t="n">
-        <v>2201.791702109052</v>
+        <v>2313.48776042284</v>
       </c>
       <c r="AD3" t="n">
-        <v>1778994.429506022</v>
+        <v>1869242.14246982</v>
       </c>
       <c r="AE3" t="n">
-        <v>2434098.662145268</v>
+        <v>2557579.564470436</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142253317327654e-06</v>
+        <v>2.543575028154783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2201791.702109051</v>
+        <v>2313487.76042284</v>
       </c>
     </row>
     <row r="4">
@@ -12290,28 +12290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1682.792305292015</v>
+        <v>1763.164211667963</v>
       </c>
       <c r="AB4" t="n">
-        <v>2302.470671657479</v>
+        <v>2412.439059719314</v>
       </c>
       <c r="AC4" t="n">
-        <v>2082.726102292373</v>
+        <v>2182.199261739188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1682792.305292015</v>
+        <v>1763164.211667963</v>
       </c>
       <c r="AE4" t="n">
-        <v>2302470.671657479</v>
+        <v>2412439.059719314</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.167438507604056e-06</v>
+        <v>2.599657527627189e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.60625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2082726.102292373</v>
+        <v>2182199.261739188</v>
       </c>
     </row>
     <row r="5">
@@ -12396,28 +12396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1699.46390816237</v>
+        <v>1779.835814538318</v>
       </c>
       <c r="AB5" t="n">
-        <v>2325.281494203909</v>
+        <v>2435.249882265744</v>
       </c>
       <c r="AC5" t="n">
-        <v>2103.359891950161</v>
+        <v>2202.833051396977</v>
       </c>
       <c r="AD5" t="n">
-        <v>1699463.908162371</v>
+        <v>1779835.814538318</v>
       </c>
       <c r="AE5" t="n">
-        <v>2325281.494203909</v>
+        <v>2435249.882265744</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.167263610449359e-06</v>
+        <v>2.599268065825298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.60729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2103359.891950162</v>
+        <v>2202833.051396977</v>
       </c>
     </row>
   </sheetData>
@@ -12693,28 +12693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12876.43205669872</v>
+        <v>13090.1368617408</v>
       </c>
       <c r="AB2" t="n">
-        <v>17618.10240806629</v>
+        <v>17910.5027503155</v>
       </c>
       <c r="AC2" t="n">
-        <v>15936.65544140182</v>
+        <v>16201.1495053732</v>
       </c>
       <c r="AD2" t="n">
-        <v>12876432.05669872</v>
+        <v>13090136.8617408</v>
       </c>
       <c r="AE2" t="n">
-        <v>17618102.4080663</v>
+        <v>17910502.75031549</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.494270097084179e-07</v>
+        <v>8.497602616544757e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.66770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>15936655.44140182</v>
+        <v>16201149.5053732</v>
       </c>
     </row>
     <row r="3">
@@ -12799,28 +12799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5230.311535515023</v>
+        <v>5360.875728263961</v>
       </c>
       <c r="AB3" t="n">
-        <v>7156.342987951841</v>
+        <v>7334.986676556608</v>
       </c>
       <c r="AC3" t="n">
-        <v>6473.351657171914</v>
+        <v>6634.945842864227</v>
       </c>
       <c r="AD3" t="n">
-        <v>5230311.535515023</v>
+        <v>5360875.728263961</v>
       </c>
       <c r="AE3" t="n">
-        <v>7156342.987951841</v>
+        <v>7334986.676556608</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.53631514782269e-07</v>
+        <v>1.424939087679502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>6473351.657171913</v>
+        <v>6634945.842864227</v>
       </c>
     </row>
     <row r="4">
@@ -12905,28 +12905,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4142.956493414084</v>
+        <v>4249.766315016391</v>
       </c>
       <c r="AB4" t="n">
-        <v>5668.575848630398</v>
+        <v>5814.717758663448</v>
       </c>
       <c r="AC4" t="n">
-        <v>5127.57492553307</v>
+        <v>5259.769256784019</v>
       </c>
       <c r="AD4" t="n">
-        <v>4142956.493414084</v>
+        <v>4249766.315016391</v>
       </c>
       <c r="AE4" t="n">
-        <v>5668575.848630399</v>
+        <v>5814717.758663448</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.647543993790592e-07</v>
+        <v>1.63504620062768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.01666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5127574.92553307</v>
+        <v>5259769.256784018</v>
       </c>
     </row>
     <row r="5">
@@ -13011,28 +13011,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3687.931648054977</v>
+        <v>3794.741380148731</v>
       </c>
       <c r="AB5" t="n">
-        <v>5045.990780930626</v>
+        <v>5192.132568494125</v>
       </c>
       <c r="AC5" t="n">
-        <v>4564.408502890958</v>
+        <v>4696.602723360678</v>
       </c>
       <c r="AD5" t="n">
-        <v>3687931.648054977</v>
+        <v>3794741.380148731</v>
       </c>
       <c r="AE5" t="n">
-        <v>5045990.780930626</v>
+        <v>5192132.568494125</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.223348981270595e-07</v>
+        <v>1.743917315681582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>4564408.502890958</v>
+        <v>4696602.723360678</v>
       </c>
     </row>
     <row r="6">
@@ -13117,28 +13117,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3441.72757822696</v>
+        <v>3536.660169501674</v>
       </c>
       <c r="AB6" t="n">
-        <v>4709.123510834937</v>
+        <v>4839.014470347353</v>
       </c>
       <c r="AC6" t="n">
-        <v>4259.691372257032</v>
+        <v>4377.185720896684</v>
       </c>
       <c r="AD6" t="n">
-        <v>3441727.57822696</v>
+        <v>3536660.169501674</v>
       </c>
       <c r="AE6" t="n">
-        <v>4709123.510834937</v>
+        <v>4839014.470347353</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.583787947459376e-07</v>
+        <v>1.812067805884154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.25625</v>
       </c>
       <c r="AH6" t="n">
-        <v>4259691.372257032</v>
+        <v>4377185.720896684</v>
       </c>
     </row>
     <row r="7">
@@ -13223,28 +13223,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3259.727359382188</v>
+        <v>3366.451750621372</v>
       </c>
       <c r="AB7" t="n">
-        <v>4460.10278212853</v>
+        <v>4606.127802569832</v>
       </c>
       <c r="AC7" t="n">
-        <v>4034.436832395584</v>
+        <v>4166.525429833367</v>
       </c>
       <c r="AD7" t="n">
-        <v>3259727.359382188</v>
+        <v>3366451.750621372</v>
       </c>
       <c r="AE7" t="n">
-        <v>4460102.78212853</v>
+        <v>4606127.802569832</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.832057110892311e-07</v>
+        <v>1.859009637309991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.84479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4034436.832395584</v>
+        <v>4166525.429833367</v>
       </c>
     </row>
     <row r="8">
@@ -13329,28 +13329,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3138.542705549176</v>
+        <v>3233.560548169911</v>
       </c>
       <c r="AB8" t="n">
-        <v>4294.292592464589</v>
+        <v>4424.300196629652</v>
       </c>
       <c r="AC8" t="n">
-        <v>3884.451334517113</v>
+        <v>4002.051195407477</v>
       </c>
       <c r="AD8" t="n">
-        <v>3138542.705549176</v>
+        <v>3233560.548169911</v>
       </c>
       <c r="AE8" t="n">
-        <v>4294292.592464589</v>
+        <v>4424300.196629653</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.000554640582135e-06</v>
+        <v>1.891812362884673e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.571875</v>
       </c>
       <c r="AH8" t="n">
-        <v>3884451.334517113</v>
+        <v>4002051.195407477</v>
       </c>
     </row>
     <row r="9">
@@ -13435,28 +13435,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3039.695273299718</v>
+        <v>3134.542523719861</v>
       </c>
       <c r="AB9" t="n">
-        <v>4159.045174819933</v>
+        <v>4288.819367210151</v>
       </c>
       <c r="AC9" t="n">
-        <v>3762.111740591526</v>
+        <v>3879.50046619924</v>
       </c>
       <c r="AD9" t="n">
-        <v>3039695.273299718</v>
+        <v>3134542.523719861</v>
       </c>
       <c r="AE9" t="n">
-        <v>4159045.174819933</v>
+        <v>4288819.367210151</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.014015016912837e-06</v>
+        <v>1.917262753416754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.36354166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3762111.740591526</v>
+        <v>3879500.46619924</v>
       </c>
     </row>
     <row r="10">
@@ -13541,28 +13541,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2952.175229921026</v>
+        <v>3047.022480341169</v>
       </c>
       <c r="AB10" t="n">
-        <v>4039.29639035739</v>
+        <v>4169.070582747608</v>
       </c>
       <c r="AC10" t="n">
-        <v>3653.791612049618</v>
+        <v>3771.180337657332</v>
       </c>
       <c r="AD10" t="n">
-        <v>2952175.229921026</v>
+        <v>3047022.480341169</v>
       </c>
       <c r="AE10" t="n">
-        <v>4039296.39035739</v>
+        <v>4169070.582747608</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025082437451413e-06</v>
+        <v>1.938188630076465e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.19791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3653791.612049618</v>
+        <v>3771180.337657331</v>
       </c>
     </row>
     <row r="11">
@@ -13647,28 +13647,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2878.249531311114</v>
+        <v>2961.390233112807</v>
       </c>
       <c r="AB11" t="n">
-        <v>3938.147988147656</v>
+        <v>4051.904764261635</v>
       </c>
       <c r="AC11" t="n">
-        <v>3562.296671384111</v>
+        <v>3665.196660444406</v>
       </c>
       <c r="AD11" t="n">
-        <v>2878249.531311114</v>
+        <v>2961390.233112807</v>
       </c>
       <c r="AE11" t="n">
-        <v>3938147.988147656</v>
+        <v>4051904.764261635</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.033308222986842e-06</v>
+        <v>1.953741646512736e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH11" t="n">
-        <v>3562296.671384111</v>
+        <v>3665196.660444405</v>
       </c>
     </row>
     <row r="12">
@@ -13753,28 +13753,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2802.744083402726</v>
+        <v>2897.676585168889</v>
       </c>
       <c r="AB12" t="n">
-        <v>3834.838103254127</v>
+        <v>3964.728940296993</v>
       </c>
       <c r="AC12" t="n">
-        <v>3468.846536908489</v>
+        <v>3586.340774766914</v>
       </c>
       <c r="AD12" t="n">
-        <v>2802744.083402726</v>
+        <v>2897676.585168889</v>
       </c>
       <c r="AE12" t="n">
-        <v>3834838.103254126</v>
+        <v>3964728.940296993</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.039888851415185e-06</v>
+        <v>1.966184059661754e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.98125</v>
       </c>
       <c r="AH12" t="n">
-        <v>3468846.536908489</v>
+        <v>3586340.774766915</v>
       </c>
     </row>
     <row r="13">
@@ -13859,28 +13859,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2727.774553777991</v>
+        <v>2822.707055544153</v>
       </c>
       <c r="AB13" t="n">
-        <v>3732.261485399336</v>
+        <v>3862.152322442202</v>
       </c>
       <c r="AC13" t="n">
-        <v>3376.059687494577</v>
+        <v>3493.553925353003</v>
       </c>
       <c r="AD13" t="n">
-        <v>2727774.55377799</v>
+        <v>2822707.055544153</v>
       </c>
       <c r="AE13" t="n">
-        <v>3732261.485399336</v>
+        <v>3862152.322442202</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.046469479843528e-06</v>
+        <v>1.978626472810771e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.8875</v>
       </c>
       <c r="AH13" t="n">
-        <v>3376059.687494577</v>
+        <v>3493553.925353003</v>
       </c>
     </row>
     <row r="14">
@@ -13965,28 +13965,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2669.52271346925</v>
+        <v>2764.455215235414</v>
       </c>
       <c r="AB14" t="n">
-        <v>3652.558747599093</v>
+        <v>3782.44958464196</v>
       </c>
       <c r="AC14" t="n">
-        <v>3303.963667126497</v>
+        <v>3421.457904984922</v>
       </c>
       <c r="AD14" t="n">
-        <v>2669522.713469251</v>
+        <v>2764455.215235414</v>
       </c>
       <c r="AE14" t="n">
-        <v>3652558.747599093</v>
+        <v>3782449.58464196</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.051255391427777e-06</v>
+        <v>1.987675500555511e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.82083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3303963.667126497</v>
+        <v>3421457.904984922</v>
       </c>
     </row>
     <row r="15">
@@ -14071,28 +14071,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2629.668415611082</v>
+        <v>2724.600917377245</v>
       </c>
       <c r="AB15" t="n">
-        <v>3598.028339022013</v>
+        <v>3727.91917606488</v>
       </c>
       <c r="AC15" t="n">
-        <v>3254.637564210107</v>
+        <v>3372.131802068533</v>
       </c>
       <c r="AD15" t="n">
-        <v>2629668.415611082</v>
+        <v>2724600.917377245</v>
       </c>
       <c r="AE15" t="n">
-        <v>3598028.339022013</v>
+        <v>3727919.17606488</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.054695265378956e-06</v>
+        <v>1.994179489247043e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.77083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>3254637.564210107</v>
+        <v>3372131.802068532</v>
       </c>
     </row>
     <row r="16">
@@ -14177,28 +14177,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2619.167777619966</v>
+        <v>2714.100279386129</v>
       </c>
       <c r="AB16" t="n">
-        <v>3583.660902867114</v>
+        <v>3713.55173990998</v>
       </c>
       <c r="AC16" t="n">
-        <v>3241.641335997008</v>
+        <v>3359.135573855433</v>
       </c>
       <c r="AD16" t="n">
-        <v>2619167.777619966</v>
+        <v>2714100.279386129</v>
       </c>
       <c r="AE16" t="n">
-        <v>3583660.902867114</v>
+        <v>3713551.73990998</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.055293504326987e-06</v>
+        <v>1.995310617715135e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.7625</v>
       </c>
       <c r="AH16" t="n">
-        <v>3241641.335997008</v>
+        <v>3359135.573855434</v>
       </c>
     </row>
     <row r="17">
@@ -14283,28 +14283,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2630.587811696009</v>
+        <v>2725.520313462172</v>
       </c>
       <c r="AB17" t="n">
-        <v>3599.286297306304</v>
+        <v>3729.17713434917</v>
       </c>
       <c r="AC17" t="n">
-        <v>3255.7754647213</v>
+        <v>3373.269702579726</v>
       </c>
       <c r="AD17" t="n">
-        <v>2630587.811696009</v>
+        <v>2725520.313462173</v>
       </c>
       <c r="AE17" t="n">
-        <v>3599286.297306304</v>
+        <v>3729177.13434917</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.055293504326987e-06</v>
+        <v>1.995310617715135e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.76354166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3255775.4647213</v>
+        <v>3373269.702579726</v>
       </c>
     </row>
   </sheetData>
@@ -14580,28 +14580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2052.310806625352</v>
+        <v>2150.136014764196</v>
       </c>
       <c r="AB2" t="n">
-        <v>2808.062187187491</v>
+        <v>2941.910952706652</v>
       </c>
       <c r="AC2" t="n">
-        <v>2540.064673182349</v>
+        <v>2661.139100378283</v>
       </c>
       <c r="AD2" t="n">
-        <v>2052310.806625352</v>
+        <v>2150136.014764196</v>
       </c>
       <c r="AE2" t="n">
-        <v>2808062.187187491</v>
+        <v>2941910.952706652</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042059788861916e-06</v>
+        <v>2.388991621564808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.89270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2540064.673182349</v>
+        <v>2661139.100378283</v>
       </c>
     </row>
     <row r="3">
@@ -14686,28 +14686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1569.374804795089</v>
+        <v>1657.400423949135</v>
       </c>
       <c r="AB3" t="n">
-        <v>2147.287843850602</v>
+        <v>2267.728379393407</v>
       </c>
       <c r="AC3" t="n">
-        <v>1942.353705770917</v>
+        <v>2051.29956564087</v>
       </c>
       <c r="AD3" t="n">
-        <v>1569374.804795089</v>
+        <v>1657400.423949135</v>
       </c>
       <c r="AE3" t="n">
-        <v>2147287.843850602</v>
+        <v>2267728.379393407</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.170751130014736e-06</v>
+        <v>2.684025111071008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.92395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1942353.705770917</v>
+        <v>2051299.56564087</v>
       </c>
     </row>
     <row r="4">
@@ -14792,28 +14792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1586.274991510443</v>
+        <v>1674.300610664488</v>
       </c>
       <c r="AB4" t="n">
-        <v>2170.411424898166</v>
+        <v>2290.85196044097</v>
       </c>
       <c r="AC4" t="n">
-        <v>1963.270404697451</v>
+        <v>2072.216264567404</v>
       </c>
       <c r="AD4" t="n">
-        <v>1586274.991510443</v>
+        <v>1674300.610664489</v>
       </c>
       <c r="AE4" t="n">
-        <v>2170411.424898166</v>
+        <v>2290851.96044097</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171467076279842e-06</v>
+        <v>2.685666465671877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.91666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1963270.404697451</v>
+        <v>2072216.264567404</v>
       </c>
     </row>
   </sheetData>
@@ -15089,28 +15089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7934.749312839755</v>
+        <v>8105.507991130469</v>
       </c>
       <c r="AB2" t="n">
-        <v>10856.67406626191</v>
+        <v>11090.31362324049</v>
       </c>
       <c r="AC2" t="n">
-        <v>9820.528330815223</v>
+        <v>10031.86965639093</v>
       </c>
       <c r="AD2" t="n">
-        <v>7934749.312839756</v>
+        <v>8105507.991130469</v>
       </c>
       <c r="AE2" t="n">
-        <v>10856674.06626191</v>
+        <v>11090313.62324049</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.787323867900846e-07</v>
+        <v>1.134307480065072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>9820528.330815222</v>
+        <v>10031869.65639093</v>
       </c>
     </row>
     <row r="3">
@@ -15195,28 +15195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4006.639827319446</v>
+        <v>4120.507393131445</v>
       </c>
       <c r="AB3" t="n">
-        <v>5482.061372212834</v>
+        <v>5637.859999239283</v>
       </c>
       <c r="AC3" t="n">
-        <v>4958.861128970093</v>
+        <v>5099.790553697879</v>
       </c>
       <c r="AD3" t="n">
-        <v>4006639.827319446</v>
+        <v>4120507.393131445</v>
       </c>
       <c r="AE3" t="n">
-        <v>5482061.372212834</v>
+        <v>5637859.999239283</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.527051072425643e-07</v>
+        <v>1.671290225866968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.99583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4958861.128970093</v>
+        <v>5099790.553697878</v>
       </c>
     </row>
     <row r="4">
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3303.975385790334</v>
+        <v>3395.137800632141</v>
       </c>
       <c r="AB4" t="n">
-        <v>4520.644883945311</v>
+        <v>4645.377321733778</v>
       </c>
       <c r="AC4" t="n">
-        <v>4089.200880986344</v>
+        <v>4202.029029975349</v>
       </c>
       <c r="AD4" t="n">
-        <v>3303975.385790334</v>
+        <v>3395137.800632141</v>
       </c>
       <c r="AE4" t="n">
-        <v>4520644.883945311</v>
+        <v>4645377.321733777</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.505080817968263e-07</v>
+        <v>1.86298270436265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.040625</v>
       </c>
       <c r="AH4" t="n">
-        <v>4089200.880986344</v>
+        <v>4202029.029975349</v>
       </c>
     </row>
     <row r="5">
@@ -15407,28 +15407,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2987.381264514664</v>
+        <v>3078.4583385019</v>
       </c>
       <c r="AB5" t="n">
-        <v>4087.466840069037</v>
+        <v>4212.082510735305</v>
       </c>
       <c r="AC5" t="n">
-        <v>3697.364741648434</v>
+        <v>3810.087267605501</v>
       </c>
       <c r="AD5" t="n">
-        <v>2987381.264514664</v>
+        <v>3078458.3385019</v>
       </c>
       <c r="AE5" t="n">
-        <v>4087466.840069036</v>
+        <v>4212082.510735305</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.000575741266576e-06</v>
+        <v>1.961114624991601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.18854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3697364.741648434</v>
+        <v>3810087.267605501</v>
       </c>
     </row>
     <row r="6">
@@ -15513,28 +15513,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2789.613651466161</v>
+        <v>2880.775976799417</v>
       </c>
       <c r="AB6" t="n">
-        <v>3816.872467004744</v>
+        <v>3941.604782323661</v>
       </c>
       <c r="AC6" t="n">
-        <v>3452.595515767819</v>
+        <v>3565.423553975598</v>
       </c>
       <c r="AD6" t="n">
-        <v>2789613.651466161</v>
+        <v>2880775.976799417</v>
       </c>
       <c r="AE6" t="n">
-        <v>3816872.467004743</v>
+        <v>3941604.782323661</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.031207197526019e-06</v>
+        <v>2.0211518559354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.70625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3452595.515767819</v>
+        <v>3565423.553975598</v>
       </c>
     </row>
     <row r="7">
@@ -15619,28 +15619,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2651.292697265831</v>
+        <v>2742.284430398495</v>
       </c>
       <c r="AB7" t="n">
-        <v>3627.61563517802</v>
+        <v>3752.114538722091</v>
       </c>
       <c r="AC7" t="n">
-        <v>3281.401090347014</v>
+        <v>3394.017993272143</v>
       </c>
       <c r="AD7" t="n">
-        <v>2651292.697265831</v>
+        <v>2742284.430398495</v>
       </c>
       <c r="AE7" t="n">
-        <v>3627615.63517802</v>
+        <v>3752114.538722091</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.052664765870197e-06</v>
+        <v>2.063208393347807e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.3875</v>
       </c>
       <c r="AH7" t="n">
-        <v>3281401.090347014</v>
+        <v>3394017.993272142</v>
       </c>
     </row>
     <row r="8">
@@ -15725,28 +15725,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2538.697485671489</v>
+        <v>2618.464609846639</v>
       </c>
       <c r="AB8" t="n">
-        <v>3473.557899324475</v>
+        <v>3582.698797698075</v>
       </c>
       <c r="AC8" t="n">
-        <v>3142.046408581946</v>
+        <v>3240.77105279498</v>
       </c>
       <c r="AD8" t="n">
-        <v>2538697.485671489</v>
+        <v>2618464.609846639</v>
       </c>
       <c r="AE8" t="n">
-        <v>3473557.899324475</v>
+        <v>3582698.797698075</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.067902749187077e-06</v>
+        <v>2.093074630060966e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>3142046.408581946</v>
+        <v>3240771.05279498</v>
       </c>
     </row>
     <row r="9">
@@ -15831,28 +15831,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2438.489799907401</v>
+        <v>2518.256924082552</v>
       </c>
       <c r="AB9" t="n">
-        <v>3336.449322810955</v>
+        <v>3445.590221184557</v>
       </c>
       <c r="AC9" t="n">
-        <v>3018.023282177786</v>
+        <v>3116.74792639082</v>
       </c>
       <c r="AD9" t="n">
-        <v>2438489.799907402</v>
+        <v>2518256.924082552</v>
       </c>
       <c r="AE9" t="n">
-        <v>3336449.322810955</v>
+        <v>3445590.221184557</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079253491861896e-06</v>
+        <v>2.115321928837095e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.00729166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>3018023.282177786</v>
+        <v>3116747.92639082</v>
       </c>
     </row>
     <row r="10">
@@ -15937,28 +15937,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2354.008242264868</v>
+        <v>2445.085226743552</v>
       </c>
       <c r="AB10" t="n">
-        <v>3220.857928581152</v>
+        <v>3345.473476777871</v>
       </c>
       <c r="AC10" t="n">
-        <v>2913.46376837974</v>
+        <v>3026.18618355558</v>
       </c>
       <c r="AD10" t="n">
-        <v>2354008.242264868</v>
+        <v>2445085.226743552</v>
       </c>
       <c r="AE10" t="n">
-        <v>3220857.928581152</v>
+        <v>3345473.476777872</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.087027973146019e-06</v>
+        <v>2.130559804711155e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.89895833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2913463.76837974</v>
+        <v>3026186.18355558</v>
       </c>
     </row>
     <row r="11">
@@ -16043,28 +16043,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2327.441950787413</v>
+        <v>2418.518935266097</v>
       </c>
       <c r="AB11" t="n">
-        <v>3184.508756559635</v>
+        <v>3309.124304756354</v>
       </c>
       <c r="AC11" t="n">
-        <v>2880.583710319573</v>
+        <v>2993.306125495414</v>
       </c>
       <c r="AD11" t="n">
-        <v>2327441.950787413</v>
+        <v>2418518.935266097</v>
       </c>
       <c r="AE11" t="n">
-        <v>3184508.756559635</v>
+        <v>3309124.304756354</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.089826786408303e-06</v>
+        <v>2.136045440025817e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.8625</v>
       </c>
       <c r="AH11" t="n">
-        <v>2880583.710319573</v>
+        <v>2993306.125495414</v>
       </c>
     </row>
     <row r="12">
@@ -16149,28 +16149,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2338.841066280696</v>
+        <v>2429.918050759381</v>
       </c>
       <c r="AB12" t="n">
-        <v>3200.105529271029</v>
+        <v>3324.721077467749</v>
       </c>
       <c r="AC12" t="n">
-        <v>2894.6919489336</v>
+        <v>3007.414364109441</v>
       </c>
       <c r="AD12" t="n">
-        <v>2338841.066280697</v>
+        <v>2429918.050759381</v>
       </c>
       <c r="AE12" t="n">
-        <v>3200105.529271029</v>
+        <v>3324721.077467749</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.090448744911033e-06</v>
+        <v>2.137264470095742e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.853125</v>
       </c>
       <c r="AH12" t="n">
-        <v>2894691.9489336</v>
+        <v>3007414.364109441</v>
       </c>
     </row>
     <row r="13">
@@ -16255,28 +16255,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2351.666489237305</v>
+        <v>2442.743473715989</v>
       </c>
       <c r="AB13" t="n">
-        <v>3217.653838777989</v>
+        <v>3342.269386974709</v>
       </c>
       <c r="AC13" t="n">
-        <v>2910.565472410422</v>
+        <v>3023.287887586263</v>
       </c>
       <c r="AD13" t="n">
-        <v>2351666.489237305</v>
+        <v>2442743.473715989</v>
       </c>
       <c r="AE13" t="n">
-        <v>3217653.838777989</v>
+        <v>3342269.386974709</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.090448744911033e-06</v>
+        <v>2.137264470095742e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.853125</v>
       </c>
       <c r="AH13" t="n">
-        <v>2910565.472410421</v>
+        <v>3023287.887586263</v>
       </c>
     </row>
   </sheetData>
@@ -16552,28 +16552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10099.48791287059</v>
+        <v>10285.65135692607</v>
       </c>
       <c r="AB2" t="n">
-        <v>13818.56492035115</v>
+        <v>14073.28195745939</v>
       </c>
       <c r="AC2" t="n">
-        <v>12499.74047882999</v>
+        <v>12730.14767941421</v>
       </c>
       <c r="AD2" t="n">
-        <v>10099487.91287059</v>
+        <v>10285651.35692607</v>
       </c>
       <c r="AE2" t="n">
-        <v>13818564.92035115</v>
+        <v>14073281.95745938</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.111304088038817e-07</v>
+        <v>9.827520119215873e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.04583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12499740.47882999</v>
+        <v>12730147.67941421</v>
       </c>
     </row>
     <row r="3">
@@ -16658,28 +16658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4589.747695408976</v>
+        <v>4706.206468069022</v>
       </c>
       <c r="AB3" t="n">
-        <v>6279.895282236541</v>
+        <v>6439.239312788466</v>
       </c>
       <c r="AC3" t="n">
-        <v>5680.550890388033</v>
+        <v>5824.687350304828</v>
       </c>
       <c r="AD3" t="n">
-        <v>4589747.695408976</v>
+        <v>4706206.468069022</v>
       </c>
       <c r="AE3" t="n">
-        <v>6279895.282236541</v>
+        <v>6439239.312788466</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.018120243024828e-07</v>
+        <v>1.541646449699945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5680550.890388032</v>
+        <v>5824687.350304828</v>
       </c>
     </row>
     <row r="4">
@@ -16764,28 +16764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3715.940004342665</v>
+        <v>3820.752899736707</v>
       </c>
       <c r="AB4" t="n">
-        <v>5084.313049644916</v>
+        <v>5227.72267714165</v>
       </c>
       <c r="AC4" t="n">
-        <v>4599.073348064795</v>
+        <v>4728.796161989912</v>
       </c>
       <c r="AD4" t="n">
-        <v>3715940.004342665</v>
+        <v>3820752.899736707</v>
       </c>
       <c r="AE4" t="n">
-        <v>5084313.049644915</v>
+        <v>5227722.67714165</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.054092457590073e-07</v>
+        <v>1.740833146602085e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.52604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4599073.348064795</v>
+        <v>4728796.161989912</v>
       </c>
     </row>
     <row r="5">
@@ -16870,28 +16870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3336.95349804295</v>
+        <v>3441.681052582419</v>
       </c>
       <c r="AB5" t="n">
-        <v>4565.766992020975</v>
+        <v>4709.05985239551</v>
       </c>
       <c r="AC5" t="n">
-        <v>4130.016598396541</v>
+        <v>4259.633789289717</v>
       </c>
       <c r="AD5" t="n">
-        <v>3336953.49804295</v>
+        <v>3441681.052582419</v>
       </c>
       <c r="AE5" t="n">
-        <v>4565766.992020975</v>
+        <v>4709059.85239551</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.597977870236826e-07</v>
+        <v>1.845406162475708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.53333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4130016.598396541</v>
+        <v>4259633.789289718</v>
       </c>
     </row>
     <row r="6">
@@ -16976,28 +16976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3110.723438572984</v>
+        <v>3215.365652257882</v>
       </c>
       <c r="AB6" t="n">
-        <v>4256.229044088319</v>
+        <v>4399.405137340657</v>
       </c>
       <c r="AC6" t="n">
-        <v>3850.020517775351</v>
+        <v>3979.532085636589</v>
       </c>
       <c r="AD6" t="n">
-        <v>3110723.438572984</v>
+        <v>3215365.652257882</v>
       </c>
       <c r="AE6" t="n">
-        <v>4256229.044088319</v>
+        <v>4399405.137340657</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.93466883997053e-07</v>
+        <v>1.910141838968904e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.975</v>
       </c>
       <c r="AH6" t="n">
-        <v>3850020.517775351</v>
+        <v>3979532.085636589</v>
       </c>
     </row>
     <row r="7">
@@ -17082,28 +17082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2964.370796905686</v>
+        <v>3057.537815033723</v>
       </c>
       <c r="AB7" t="n">
-        <v>4055.982903136246</v>
+        <v>4183.458127577787</v>
       </c>
       <c r="AC7" t="n">
-        <v>3668.885587468527</v>
+        <v>3784.194755401964</v>
       </c>
       <c r="AD7" t="n">
-        <v>2964370.796905686</v>
+        <v>3057537.815033723</v>
       </c>
       <c r="AE7" t="n">
-        <v>4055982.903136246</v>
+        <v>4183458.127577787</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.015862165694272e-06</v>
+        <v>1.953201316093337e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.621875</v>
       </c>
       <c r="AH7" t="n">
-        <v>3668885.587468527</v>
+        <v>3784194.755401964</v>
       </c>
     </row>
     <row r="8">
@@ -17188,28 +17188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2844.502870923912</v>
+        <v>2937.499296851357</v>
       </c>
       <c r="AB8" t="n">
-        <v>3891.974318608301</v>
+        <v>4019.216131274995</v>
       </c>
       <c r="AC8" t="n">
-        <v>3520.529752060442</v>
+        <v>3635.627784711228</v>
       </c>
       <c r="AD8" t="n">
-        <v>2844502.870923912</v>
+        <v>2937499.296851357</v>
       </c>
       <c r="AE8" t="n">
-        <v>3891974.318608301</v>
+        <v>4019216.131274995</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.032772888608499e-06</v>
+        <v>1.98571561514648e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.365625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3520529.752060442</v>
+        <v>3635627.784711228</v>
       </c>
     </row>
     <row r="9">
@@ -17294,28 +17294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2749.971547834815</v>
+        <v>2842.96797376226</v>
       </c>
       <c r="AB9" t="n">
-        <v>3762.632391930151</v>
+        <v>3889.874204596845</v>
       </c>
       <c r="AC9" t="n">
-        <v>3403.532037331925</v>
+        <v>3518.63006998271</v>
       </c>
       <c r="AD9" t="n">
-        <v>2749971.547834815</v>
+        <v>2842967.97376226</v>
       </c>
       <c r="AE9" t="n">
-        <v>3762632.391930151</v>
+        <v>3889874.204596845</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.045113145870232e-06</v>
+        <v>2.009442265806882e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.184375</v>
       </c>
       <c r="AH9" t="n">
-        <v>3403532.037331925</v>
+        <v>3518630.06998271</v>
       </c>
     </row>
     <row r="10">
@@ -17400,28 +17400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2661.379521303323</v>
+        <v>2742.900751673906</v>
       </c>
       <c r="AB10" t="n">
-        <v>3641.416872825388</v>
+        <v>3752.957816681283</v>
       </c>
       <c r="AC10" t="n">
-        <v>3293.885157243475</v>
+        <v>3394.780789966458</v>
       </c>
       <c r="AD10" t="n">
-        <v>2661379.521303323</v>
+        <v>2742900.751673906</v>
       </c>
       <c r="AE10" t="n">
-        <v>3641416.872825387</v>
+        <v>3752957.816681284</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.055320519160801e-06</v>
+        <v>2.029068013884005e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.03645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3293885.157243475</v>
+        <v>3394780.789966458</v>
       </c>
     </row>
     <row r="11">
@@ -17506,28 +17506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2569.068446087895</v>
+        <v>2662.15012336136</v>
       </c>
       <c r="AB11" t="n">
-        <v>3515.112787238414</v>
+        <v>3642.471244557757</v>
       </c>
       <c r="AC11" t="n">
-        <v>3179.635356316029</v>
+        <v>3294.838901217527</v>
       </c>
       <c r="AD11" t="n">
-        <v>2569068.446087894</v>
+        <v>2662150.12336136</v>
       </c>
       <c r="AE11" t="n">
-        <v>3515112.787238413</v>
+        <v>3642471.244557757</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.063242659625124e-06</v>
+        <v>2.044299937764757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.92708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3179635.356316029</v>
+        <v>3294838.901217527</v>
       </c>
     </row>
     <row r="12">
@@ -17612,28 +17612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2503.921523091184</v>
+        <v>2597.003200364648</v>
       </c>
       <c r="AB12" t="n">
-        <v>3425.975893114907</v>
+        <v>3553.334350434251</v>
       </c>
       <c r="AC12" t="n">
-        <v>3099.005562263257</v>
+        <v>3214.209107164755</v>
       </c>
       <c r="AD12" t="n">
-        <v>2503921.523091184</v>
+        <v>2597003.200364648</v>
       </c>
       <c r="AE12" t="n">
-        <v>3425975.893114907</v>
+        <v>3553334.350434251</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.069184264973366e-06</v>
+        <v>2.05572388067532e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.84270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3099005.562263257</v>
+        <v>3214209.107164755</v>
       </c>
     </row>
     <row r="13">
@@ -17718,28 +17718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2479.551772650041</v>
+        <v>2572.633449923505</v>
       </c>
       <c r="AB13" t="n">
-        <v>3392.632125443823</v>
+        <v>3519.990582763166</v>
       </c>
       <c r="AC13" t="n">
-        <v>3068.84407698043</v>
+        <v>3184.047621881927</v>
       </c>
       <c r="AD13" t="n">
-        <v>2479551.772650041</v>
+        <v>2572633.449923505</v>
       </c>
       <c r="AE13" t="n">
-        <v>3392632.125443823</v>
+        <v>3519990.582763166</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.071469497799613e-06</v>
+        <v>2.060117704871691e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.81041666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3068844.07698043</v>
+        <v>3184047.621881927</v>
       </c>
     </row>
     <row r="14">
@@ -17824,28 +17824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2479.133826114985</v>
+        <v>2572.215503388451</v>
       </c>
       <c r="AB14" t="n">
-        <v>3392.060272556061</v>
+        <v>3519.418729875404</v>
       </c>
       <c r="AC14" t="n">
-        <v>3068.326800929675</v>
+        <v>3183.530345831172</v>
       </c>
       <c r="AD14" t="n">
-        <v>2479133.826114985</v>
+        <v>2572215.50338845</v>
       </c>
       <c r="AE14" t="n">
-        <v>3392060.272556061</v>
+        <v>3519418.729875404</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.072231242075028e-06</v>
+        <v>2.061582312937148e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>3068326.800929675</v>
+        <v>3183530.345831173</v>
       </c>
     </row>
     <row r="15">
@@ -17930,28 +17930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2491.4930568246</v>
+        <v>2584.574734098065</v>
       </c>
       <c r="AB15" t="n">
-        <v>3408.970717263733</v>
+        <v>3536.329174583077</v>
       </c>
       <c r="AC15" t="n">
-        <v>3083.623336528405</v>
+        <v>3198.826881429903</v>
       </c>
       <c r="AD15" t="n">
-        <v>2491493.0568246</v>
+        <v>2584574.734098065</v>
       </c>
       <c r="AE15" t="n">
-        <v>3408970.717263733</v>
+        <v>3536329.174583076</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.072231242075028e-06</v>
+        <v>2.061582312937148e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="AH15" t="n">
-        <v>3083623.336528405</v>
+        <v>3198826.881429903</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16599.39726422768</v>
+        <v>16841.08378081447</v>
       </c>
       <c r="AB2" t="n">
-        <v>22712.02765064079</v>
+        <v>23042.71380509146</v>
       </c>
       <c r="AC2" t="n">
-        <v>20544.42360819379</v>
+        <v>20843.54954018461</v>
       </c>
       <c r="AD2" t="n">
-        <v>16599397.26422768</v>
+        <v>16841083.78081447</v>
       </c>
       <c r="AE2" t="n">
-        <v>22712027.65064079</v>
+        <v>23042713.80509146</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.923310884487711e-07</v>
+        <v>7.308830608698852e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>20544423.60819379</v>
+        <v>20843549.54018461</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5914.264129296122</v>
+        <v>6047.285539129187</v>
       </c>
       <c r="AB3" t="n">
-        <v>8092.157100622067</v>
+        <v>8274.162862046102</v>
       </c>
       <c r="AC3" t="n">
-        <v>7319.852984352215</v>
+        <v>7484.488371352622</v>
       </c>
       <c r="AD3" t="n">
-        <v>5914264.129296121</v>
+        <v>6047285.539129186</v>
       </c>
       <c r="AE3" t="n">
-        <v>8092157.100622067</v>
+        <v>8274162.862046102</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.095193035102402e-07</v>
+        <v>1.32178064793748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.590625</v>
       </c>
       <c r="AH3" t="n">
-        <v>7319852.984352214</v>
+        <v>7484488.371352622</v>
       </c>
     </row>
     <row r="4">
@@ -18439,28 +18439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4581.285814383983</v>
+        <v>4702.129027923106</v>
       </c>
       <c r="AB4" t="n">
-        <v>6268.3173633063</v>
+        <v>6433.660379296861</v>
       </c>
       <c r="AC4" t="n">
-        <v>5670.077951790783</v>
+        <v>5819.64086239558</v>
       </c>
       <c r="AD4" t="n">
-        <v>4581285.814383983</v>
+        <v>4702129.027923106</v>
       </c>
       <c r="AE4" t="n">
-        <v>6268317.3633063</v>
+        <v>6433660.379296861</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.261304553617677e-07</v>
+        <v>1.539018379297982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5670077.951790784</v>
+        <v>5819640.86239558</v>
       </c>
     </row>
     <row r="5">
@@ -18545,28 +18545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4056.271869622536</v>
+        <v>4164.93697637627</v>
       </c>
       <c r="AB5" t="n">
-        <v>5549.970122103095</v>
+        <v>5698.650515129732</v>
       </c>
       <c r="AC5" t="n">
-        <v>5020.288763081354</v>
+        <v>5154.779308071765</v>
       </c>
       <c r="AD5" t="n">
-        <v>4056271.869622536</v>
+        <v>4164936.976376269</v>
       </c>
       <c r="AE5" t="n">
-        <v>5549970.122103095</v>
+        <v>5698650.515129732</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.875976198938467e-07</v>
+        <v>1.653527044756607e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.25625</v>
       </c>
       <c r="AH5" t="n">
-        <v>5020288.763081354</v>
+        <v>5154779.308071765</v>
       </c>
     </row>
     <row r="6">
@@ -18651,28 +18651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3761.753576982035</v>
+        <v>3870.50393508179</v>
       </c>
       <c r="AB6" t="n">
-        <v>5146.997200882284</v>
+        <v>5295.79423856157</v>
       </c>
       <c r="AC6" t="n">
-        <v>4655.775011885826</v>
+        <v>4790.371069126949</v>
       </c>
       <c r="AD6" t="n">
-        <v>3761753.576982035</v>
+        <v>3870503.93508179</v>
       </c>
       <c r="AE6" t="n">
-        <v>5146997.200882284</v>
+        <v>5295794.23856157</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.256837338024791e-07</v>
+        <v>1.724478586272836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.54791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4655775.011885826</v>
+        <v>4790371.069126949</v>
       </c>
     </row>
     <row r="7">
@@ -18757,28 +18757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3573.912348610357</v>
+        <v>3670.569940779293</v>
       </c>
       <c r="AB7" t="n">
-        <v>4889.984545254008</v>
+        <v>5022.235727091565</v>
       </c>
       <c r="AC7" t="n">
-        <v>4423.291283391195</v>
+        <v>4542.920598049872</v>
       </c>
       <c r="AD7" t="n">
-        <v>3573912.348610357</v>
+        <v>3670569.940779293</v>
       </c>
       <c r="AE7" t="n">
-        <v>4889984.545254009</v>
+        <v>5022235.727091566</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.518587464501109e-07</v>
+        <v>1.77324064955426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.09270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4423291.283391195</v>
+        <v>4542920.598049872</v>
       </c>
     </row>
     <row r="8">
@@ -18863,28 +18863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3428.124434063479</v>
+        <v>3524.867277578436</v>
       </c>
       <c r="AB8" t="n">
-        <v>4690.511088862097</v>
+        <v>4822.878915352304</v>
       </c>
       <c r="AC8" t="n">
-        <v>4242.855293714581</v>
+        <v>4362.590120623969</v>
       </c>
       <c r="AD8" t="n">
-        <v>3428124.434063479</v>
+        <v>3524867.277578436</v>
       </c>
       <c r="AE8" t="n">
-        <v>4690511.088862097</v>
+        <v>4822878.915352304</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.706812274551494e-07</v>
+        <v>1.808305504048768e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.78020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4242855.29371458</v>
+        <v>4362590.120623969</v>
       </c>
     </row>
     <row r="9">
@@ -18969,28 +18969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3319.156013441336</v>
+        <v>3415.898856956293</v>
       </c>
       <c r="AB9" t="n">
-        <v>4541.415688419439</v>
+        <v>4673.783514909645</v>
       </c>
       <c r="AC9" t="n">
-        <v>4107.989349033467</v>
+        <v>4227.724175942855</v>
       </c>
       <c r="AD9" t="n">
-        <v>3319156.013441336</v>
+        <v>3415898.856956292</v>
       </c>
       <c r="AE9" t="n">
-        <v>4541415.688419439</v>
+        <v>4673783.514909646</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.853862907403358e-07</v>
+        <v>1.835699921622602e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.54583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4107989.349033467</v>
+        <v>4227724.175942855</v>
       </c>
     </row>
     <row r="10">
@@ -19075,28 +19075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3230.335389252559</v>
+        <v>3326.907640566923</v>
       </c>
       <c r="AB10" t="n">
-        <v>4419.887391914961</v>
+        <v>4552.02180663032</v>
       </c>
       <c r="AC10" t="n">
-        <v>3998.059542581345</v>
+        <v>4117.583234208083</v>
       </c>
       <c r="AD10" t="n">
-        <v>3230335.389252559</v>
+        <v>3326907.640566923</v>
       </c>
       <c r="AE10" t="n">
-        <v>4419887.391914961</v>
+        <v>4552021.806630321</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.965621388370771e-07</v>
+        <v>1.856519678978715e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.37083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3998059.542581345</v>
+        <v>4117583.234208083</v>
       </c>
     </row>
     <row r="11">
@@ -19181,28 +19181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3157.394793741136</v>
+        <v>3253.967045055501</v>
       </c>
       <c r="AB11" t="n">
-        <v>4320.086851224263</v>
+        <v>4452.221265939622</v>
       </c>
       <c r="AC11" t="n">
-        <v>3907.783825423233</v>
+        <v>4027.307517049969</v>
       </c>
       <c r="AD11" t="n">
-        <v>3157394.793741136</v>
+        <v>3253967.045055501</v>
       </c>
       <c r="AE11" t="n">
-        <v>4320086.851224263</v>
+        <v>4452221.265939622</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.005679278073893e-06</v>
+        <v>1.873504217874492e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.23125</v>
       </c>
       <c r="AH11" t="n">
-        <v>3907783.825423233</v>
+        <v>4027307.517049969</v>
       </c>
     </row>
     <row r="12">
@@ -19287,28 +19287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3083.997215745912</v>
+        <v>3168.64729333005</v>
       </c>
       <c r="AB12" t="n">
-        <v>4219.661046938582</v>
+        <v>4335.483017587061</v>
       </c>
       <c r="AC12" t="n">
-        <v>3816.942518950079</v>
+        <v>3921.71060327702</v>
       </c>
       <c r="AD12" t="n">
-        <v>3083997.215745912</v>
+        <v>3168647.29333005</v>
       </c>
       <c r="AE12" t="n">
-        <v>4219661.046938582</v>
+        <v>4335483.017587061</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.014208214779301e-06</v>
+        <v>1.889392980067316e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3816942.518950079</v>
+        <v>3921710.60327702</v>
       </c>
     </row>
     <row r="13">
@@ -19393,28 +19393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3029.822858500319</v>
+        <v>3114.472936084458</v>
       </c>
       <c r="AB13" t="n">
-        <v>4145.537301351193</v>
+        <v>4261.359271999673</v>
       </c>
       <c r="AC13" t="n">
-        <v>3749.893039608224</v>
+        <v>3854.661123935165</v>
       </c>
       <c r="AD13" t="n">
-        <v>3029822.858500319</v>
+        <v>3114472.936084458</v>
       </c>
       <c r="AE13" t="n">
-        <v>4145537.301351193</v>
+        <v>4261359.271999673</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.019502037561968e-06</v>
+        <v>1.899254970393896e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.02604166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3749893.039608224</v>
+        <v>3854661.123935165</v>
       </c>
     </row>
     <row r="14">
@@ -19499,28 +19499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2952.68399885835</v>
+        <v>3049.341501518735</v>
       </c>
       <c r="AB14" t="n">
-        <v>4039.992510462738</v>
+        <v>4172.243569830747</v>
       </c>
       <c r="AC14" t="n">
-        <v>3654.421295429122</v>
+        <v>3774.050499306572</v>
       </c>
       <c r="AD14" t="n">
-        <v>2952683.99885835</v>
+        <v>3049341.501518735</v>
       </c>
       <c r="AE14" t="n">
-        <v>4039992.510462738</v>
+        <v>4172243.569830747</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.025531113508894e-06</v>
+        <v>1.910486681599168e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.93541666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>3654421.295429123</v>
+        <v>3774050.499306572</v>
       </c>
     </row>
     <row r="15">
@@ -19605,28 +19605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2901.451937077852</v>
+        <v>2998.109439738236</v>
       </c>
       <c r="AB15" t="n">
-        <v>3969.894543335606</v>
+        <v>4102.145602703616</v>
       </c>
       <c r="AC15" t="n">
-        <v>3591.013379901492</v>
+        <v>3710.642583778941</v>
       </c>
       <c r="AD15" t="n">
-        <v>2901451.937077852</v>
+        <v>2998109.439738236</v>
       </c>
       <c r="AE15" t="n">
-        <v>3969894.543335606</v>
+        <v>4102145.602703616</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.029501480595895e-06</v>
+        <v>1.917883174344103e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.878125</v>
       </c>
       <c r="AH15" t="n">
-        <v>3591013.379901493</v>
+        <v>3710642.583778941</v>
       </c>
     </row>
     <row r="16">
@@ -19711,28 +19711,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2838.496608000367</v>
+        <v>2935.154110660752</v>
       </c>
       <c r="AB16" t="n">
-        <v>3883.756284698688</v>
+        <v>4016.007344066697</v>
       </c>
       <c r="AC16" t="n">
-        <v>3513.096035773079</v>
+        <v>3632.725239650528</v>
       </c>
       <c r="AD16" t="n">
-        <v>2838496.608000367</v>
+        <v>2935154.110660752</v>
       </c>
       <c r="AE16" t="n">
-        <v>3883756.284698688</v>
+        <v>4016007.344066697</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.03464825274571e-06</v>
+        <v>1.927471220494945e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.80520833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3513096.035773079</v>
+        <v>3632725.239650528</v>
       </c>
     </row>
     <row r="17">
@@ -19817,28 +19817,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2797.832271442388</v>
+        <v>2894.489774102773</v>
       </c>
       <c r="AB17" t="n">
-        <v>3828.117545436142</v>
+        <v>3960.368604804152</v>
       </c>
       <c r="AC17" t="n">
-        <v>3462.767379696292</v>
+        <v>3582.396583573741</v>
       </c>
       <c r="AD17" t="n">
-        <v>2797832.271442389</v>
+        <v>2894489.774102773</v>
       </c>
       <c r="AE17" t="n">
-        <v>3828117.545436142</v>
+        <v>3960368.604804152</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.037442214769895e-06</v>
+        <v>1.932676159833973e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.76458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3462767.379696292</v>
+        <v>3582396.583573741</v>
       </c>
     </row>
     <row r="18">
@@ -19923,28 +19923,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2766.811672131234</v>
+        <v>2863.469174791618</v>
       </c>
       <c r="AB18" t="n">
-        <v>3785.673792926361</v>
+        <v>3917.92485229437</v>
       </c>
       <c r="AC18" t="n">
-        <v>3424.374399355866</v>
+        <v>3544.003603233314</v>
       </c>
       <c r="AD18" t="n">
-        <v>2766811.672131233</v>
+        <v>2863469.174791618</v>
       </c>
       <c r="AE18" t="n">
-        <v>3785673.792926361</v>
+        <v>3917924.852294371</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.038912721098414e-06</v>
+        <v>1.935415601591357e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.74375</v>
       </c>
       <c r="AH18" t="n">
-        <v>3424374.399355866</v>
+        <v>3544003.603233314</v>
       </c>
     </row>
     <row r="19">
@@ -20029,28 +20029,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2770.906027146852</v>
+        <v>2867.563529807238</v>
       </c>
       <c r="AB19" t="n">
-        <v>3791.275870088928</v>
+        <v>3923.526929456937</v>
       </c>
       <c r="AC19" t="n">
-        <v>3429.4418221366</v>
+        <v>3549.071026014049</v>
       </c>
       <c r="AD19" t="n">
-        <v>2770906.027146853</v>
+        <v>2867563.529807237</v>
       </c>
       <c r="AE19" t="n">
-        <v>3791275.870088928</v>
+        <v>3923526.929456937</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.039500923629821e-06</v>
+        <v>1.93651137829431e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.73645833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>3429441.822136601</v>
+        <v>3549071.02601405</v>
       </c>
     </row>
     <row r="20">
@@ -20135,28 +20135,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2777.154385562342</v>
+        <v>2873.811888222726</v>
       </c>
       <c r="AB20" t="n">
-        <v>3799.825149731118</v>
+        <v>3932.076209099128</v>
       </c>
       <c r="AC20" t="n">
-        <v>3437.175170528729</v>
+        <v>3556.804374406179</v>
       </c>
       <c r="AD20" t="n">
-        <v>2777154.385562342</v>
+        <v>2873811.888222727</v>
       </c>
       <c r="AE20" t="n">
-        <v>3799825.149731119</v>
+        <v>3932076.209099128</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.040089126161229e-06</v>
+        <v>1.937607154997263e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.728125</v>
       </c>
       <c r="AH20" t="n">
-        <v>3437175.170528729</v>
+        <v>3556804.374406179</v>
       </c>
     </row>
     <row r="21">
@@ -20241,28 +20241,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2790.035363291248</v>
+        <v>2886.692865951632</v>
       </c>
       <c r="AB21" t="n">
-        <v>3817.449471728439</v>
+        <v>3949.700531096449</v>
       </c>
       <c r="AC21" t="n">
-        <v>3453.117451970517</v>
+        <v>3572.746655847966</v>
       </c>
       <c r="AD21" t="n">
-        <v>2790035.363291248</v>
+        <v>2886692.865951632</v>
       </c>
       <c r="AE21" t="n">
-        <v>3817449.471728439</v>
+        <v>3949700.531096449</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.040089126161229e-06</v>
+        <v>1.937607154997263e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.72708333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>3453117.451970517</v>
+        <v>3572746.655847966</v>
       </c>
     </row>
   </sheetData>
@@ -20538,28 +20538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6218.023563321547</v>
+        <v>6362.419256479373</v>
       </c>
       <c r="AB2" t="n">
-        <v>8507.774159176119</v>
+        <v>8705.342716843057</v>
       </c>
       <c r="AC2" t="n">
-        <v>7695.804134160056</v>
+        <v>7874.517025972467</v>
       </c>
       <c r="AD2" t="n">
-        <v>6218023.563321547</v>
+        <v>6362419.256479373</v>
       </c>
       <c r="AE2" t="n">
-        <v>8507774.159176119</v>
+        <v>8705342.716843057</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.54321914214997e-07</v>
+        <v>1.311586546339178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.32604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7695804.134160056</v>
+        <v>7874517.025972467</v>
       </c>
     </row>
     <row r="3">
@@ -20644,28 +20644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3452.800057453138</v>
+        <v>3552.7991575091</v>
       </c>
       <c r="AB3" t="n">
-        <v>4724.273365395504</v>
+        <v>4861.096545741013</v>
       </c>
       <c r="AC3" t="n">
-        <v>4273.39534596129</v>
+        <v>4397.16031400716</v>
       </c>
       <c r="AD3" t="n">
-        <v>3452800.057453138</v>
+        <v>3552799.1575091</v>
       </c>
       <c r="AE3" t="n">
-        <v>4724273.365395504</v>
+        <v>4861096.545741013</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.101326698818376e-07</v>
+        <v>1.824358529444794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.20729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4273395.34596129</v>
+        <v>4397160.31400716</v>
       </c>
     </row>
     <row r="4">
@@ -20750,28 +20750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2887.308389490577</v>
+        <v>2987.307400037987</v>
       </c>
       <c r="AB4" t="n">
-        <v>3950.542717557415</v>
+        <v>4087.365775433375</v>
       </c>
       <c r="AC4" t="n">
-        <v>3573.508465215114</v>
+        <v>3697.273322479756</v>
       </c>
       <c r="AD4" t="n">
-        <v>2887308.389490577</v>
+        <v>2987307.400037987</v>
       </c>
       <c r="AE4" t="n">
-        <v>3950542.717557414</v>
+        <v>4087365.775433376</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.995391653325617e-07</v>
+        <v>2.003573613092404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>3573508.465215113</v>
+        <v>3697273.322479756</v>
       </c>
     </row>
     <row r="5">
@@ -20856,28 +20856,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2620.55405687279</v>
+        <v>2720.467726565627</v>
       </c>
       <c r="AB5" t="n">
-        <v>3585.557671299152</v>
+        <v>3722.263962052915</v>
       </c>
       <c r="AC5" t="n">
-        <v>3243.357079512024</v>
+        <v>3367.016313744727</v>
       </c>
       <c r="AD5" t="n">
-        <v>2620554.05687279</v>
+        <v>2720467.726565627</v>
       </c>
       <c r="AE5" t="n">
-        <v>3585557.671299152</v>
+        <v>3722263.962052915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.045674189675462e-06</v>
+        <v>2.096051147358964e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.846875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3243357.079512024</v>
+        <v>3367016.313744727</v>
       </c>
     </row>
     <row r="6">
@@ -20962,28 +20962,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2450.60656245111</v>
+        <v>2539.39983816339</v>
       </c>
       <c r="AB6" t="n">
-        <v>3353.028011877093</v>
+        <v>3474.518888989499</v>
       </c>
       <c r="AC6" t="n">
-        <v>3033.019724427788</v>
+        <v>3142.915682742098</v>
       </c>
       <c r="AD6" t="n">
-        <v>2450606.56245111</v>
+        <v>2539399.83816339</v>
       </c>
       <c r="AE6" t="n">
-        <v>3353028.011877093</v>
+        <v>3474518.888989499</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073832463153715e-06</v>
+        <v>2.152494332066485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.43229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3033019.724427789</v>
+        <v>3142915.682742098</v>
       </c>
     </row>
     <row r="7">
@@ -21068,28 +21068,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2321.035394876628</v>
+        <v>2398.878868808943</v>
       </c>
       <c r="AB7" t="n">
-        <v>3175.743024125199</v>
+        <v>3282.251899371093</v>
       </c>
       <c r="AC7" t="n">
-        <v>2872.654567085898</v>
+        <v>2968.998384764465</v>
       </c>
       <c r="AD7" t="n">
-        <v>2321035.394876628</v>
+        <v>2398878.868808942</v>
       </c>
       <c r="AE7" t="n">
-        <v>3175743.024125199</v>
+        <v>3282251.899371093</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.092922818054226e-06</v>
+        <v>2.190760897969889e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.1625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2872654.567085898</v>
+        <v>2968998.384764465</v>
       </c>
     </row>
     <row r="8">
@@ -21174,28 +21174,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2202.905178205491</v>
+        <v>2291.783705263791</v>
       </c>
       <c r="AB8" t="n">
-        <v>3014.112050138392</v>
+        <v>3135.719571903447</v>
       </c>
       <c r="AC8" t="n">
-        <v>2726.449426405901</v>
+        <v>2836.450896970923</v>
       </c>
       <c r="AD8" t="n">
-        <v>2202905.178205491</v>
+        <v>2291783.705263792</v>
       </c>
       <c r="AE8" t="n">
-        <v>3014112.050138392</v>
+        <v>3135719.571903447</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106126980193745e-06</v>
+        <v>2.217228606053077e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.98125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2726449.426405901</v>
+        <v>2836450.896970923</v>
       </c>
     </row>
     <row r="9">
@@ -21280,28 +21280,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2183.946383897251</v>
+        <v>2272.824910955554</v>
       </c>
       <c r="AB9" t="n">
-        <v>2988.171791362709</v>
+        <v>3109.779313127939</v>
       </c>
       <c r="AC9" t="n">
-        <v>2702.984869520501</v>
+        <v>2812.98634008557</v>
       </c>
       <c r="AD9" t="n">
-        <v>2183946.383897251</v>
+        <v>2272824.910955553</v>
       </c>
       <c r="AE9" t="n">
-        <v>2988171.791362709</v>
+        <v>3109779.313127939</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.109308706010497e-06</v>
+        <v>2.223606367036978e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.93854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2702984.869520501</v>
+        <v>2812986.34008557</v>
       </c>
     </row>
     <row r="10">
@@ -21386,28 +21386,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2192.925293042661</v>
+        <v>2281.803820100961</v>
       </c>
       <c r="AB10" t="n">
-        <v>3000.457130977146</v>
+        <v>3122.064652742201</v>
       </c>
       <c r="AC10" t="n">
-        <v>2714.097713564606</v>
+        <v>2824.099184129628</v>
       </c>
       <c r="AD10" t="n">
-        <v>2192925.293042661</v>
+        <v>2281803.820100961</v>
       </c>
       <c r="AE10" t="n">
-        <v>3000457.130977146</v>
+        <v>3122064.652742201</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.109626878592172e-06</v>
+        <v>2.224244143135368e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.934375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2714097.713564606</v>
+        <v>2824099.184129628</v>
       </c>
     </row>
     <row r="11">
@@ -21492,28 +21492,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2206.141778671132</v>
+        <v>2295.020305729432</v>
       </c>
       <c r="AB11" t="n">
-        <v>3018.540509684217</v>
+        <v>3140.148031449272</v>
       </c>
       <c r="AC11" t="n">
-        <v>2730.455239988055</v>
+        <v>2840.456710553077</v>
       </c>
       <c r="AD11" t="n">
-        <v>2206141.778671132</v>
+        <v>2295020.305729432</v>
       </c>
       <c r="AE11" t="n">
-        <v>3018540.509684217</v>
+        <v>3140148.031449272</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.109626878592172e-06</v>
+        <v>2.224244143135368e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.934375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2730455.239988055</v>
+        <v>2840456.710553077</v>
       </c>
     </row>
   </sheetData>
@@ -21789,28 +21789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4196.278105174612</v>
+        <v>4323.850411547934</v>
       </c>
       <c r="AB2" t="n">
-        <v>5741.532830224643</v>
+        <v>5916.082887897579</v>
       </c>
       <c r="AC2" t="n">
-        <v>5193.568995199726</v>
+        <v>5351.460240350894</v>
       </c>
       <c r="AD2" t="n">
-        <v>4196278.105174612</v>
+        <v>4323850.411547934</v>
       </c>
       <c r="AE2" t="n">
-        <v>5741532.830224643</v>
+        <v>5916082.887897579</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.869813896644333e-07</v>
+        <v>1.646414283354772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.93541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5193568.995199726</v>
+        <v>5351460.240350895</v>
       </c>
     </row>
     <row r="3">
@@ -21895,28 +21895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2646.343344663878</v>
+        <v>2731.505426227407</v>
       </c>
       <c r="AB3" t="n">
-        <v>3620.843712598002</v>
+        <v>3737.366229679104</v>
       </c>
       <c r="AC3" t="n">
-        <v>3275.27547055358</v>
+        <v>3380.677242144837</v>
       </c>
       <c r="AD3" t="n">
-        <v>2646343.344663878</v>
+        <v>2731505.426227407</v>
       </c>
       <c r="AE3" t="n">
-        <v>3620843.712598002</v>
+        <v>3737366.229679104</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.009702591540407e-06</v>
+        <v>2.112360966199331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.096875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3275275.47055358</v>
+        <v>3380677.242144837</v>
       </c>
     </row>
     <row r="4">
@@ -22001,28 +22001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2248.017705533051</v>
+        <v>2343.654264885756</v>
       </c>
       <c r="AB4" t="n">
-        <v>3075.837000252206</v>
+        <v>3206.691159945808</v>
       </c>
       <c r="AC4" t="n">
-        <v>2782.283433912362</v>
+        <v>2900.649056259768</v>
       </c>
       <c r="AD4" t="n">
-        <v>2248017.705533051</v>
+        <v>2343654.264885756</v>
       </c>
       <c r="AE4" t="n">
-        <v>3075837.000252206</v>
+        <v>3206691.159945808</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.086594435045207e-06</v>
+        <v>2.273223511467096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2782283.433912362</v>
+        <v>2900649.056259768</v>
       </c>
     </row>
     <row r="5">
@@ -22107,28 +22107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2039.087544391323</v>
+        <v>2124.078944245707</v>
       </c>
       <c r="AB5" t="n">
-        <v>2789.969536429736</v>
+        <v>2906.258519266436</v>
       </c>
       <c r="AC5" t="n">
-        <v>2523.698759619719</v>
+        <v>2628.889285147096</v>
       </c>
       <c r="AD5" t="n">
-        <v>2039087.544391323</v>
+        <v>2124078.944245707</v>
       </c>
       <c r="AE5" t="n">
-        <v>2789969.536429736</v>
+        <v>2906258.519266436</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.125703217517476e-06</v>
+        <v>2.355041530180873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.334375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2523698.759619719</v>
+        <v>2628889.285147096</v>
       </c>
     </row>
     <row r="6">
@@ -22213,28 +22213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1956.079160829273</v>
+        <v>2030.595993385928</v>
       </c>
       <c r="AB6" t="n">
-        <v>2676.393803968712</v>
+        <v>2778.351021723364</v>
       </c>
       <c r="AC6" t="n">
-        <v>2420.962535660233</v>
+        <v>2513.189099650235</v>
       </c>
       <c r="AD6" t="n">
-        <v>1956079.160829273</v>
+        <v>2030595.993385928</v>
       </c>
       <c r="AE6" t="n">
-        <v>2676393.803968712</v>
+        <v>2778351.021723364</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.139623292634725e-06</v>
+        <v>2.384163197858658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.14791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2420962.535660233</v>
+        <v>2513189.099650235</v>
       </c>
     </row>
     <row r="7">
@@ -22319,28 +22319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1964.882450162901</v>
+        <v>2039.399282719556</v>
       </c>
       <c r="AB7" t="n">
-        <v>2688.438852808697</v>
+        <v>2790.396070563349</v>
       </c>
       <c r="AC7" t="n">
-        <v>2431.858021944263</v>
+        <v>2524.084585934264</v>
       </c>
       <c r="AD7" t="n">
-        <v>1964882.450162901</v>
+        <v>2039399.282719556</v>
       </c>
       <c r="AE7" t="n">
-        <v>2688438.852808697</v>
+        <v>2790396.070563348</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140617583714528e-06</v>
+        <v>2.386243316978499e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.134375</v>
       </c>
       <c r="AH7" t="n">
-        <v>2431858.021944263</v>
+        <v>2524084.585934265</v>
       </c>
     </row>
   </sheetData>
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3084.739925264964</v>
+        <v>3197.488480787654</v>
       </c>
       <c r="AB2" t="n">
-        <v>4220.677254868579</v>
+        <v>4374.944802649948</v>
       </c>
       <c r="AC2" t="n">
-        <v>3817.861741421495</v>
+        <v>3957.406210958467</v>
       </c>
       <c r="AD2" t="n">
-        <v>3084739.925264964</v>
+        <v>3197488.480787654</v>
       </c>
       <c r="AE2" t="n">
-        <v>4220677.254868579</v>
+        <v>4374944.802649948</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.970655806627738e-07</v>
+        <v>1.950091188463733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.90416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3817861.741421495</v>
+        <v>3957406.210958467</v>
       </c>
     </row>
     <row r="3">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2089.43320666741</v>
+        <v>2171.471036944542</v>
       </c>
       <c r="AB3" t="n">
-        <v>2858.854692649741</v>
+        <v>2971.10247128855</v>
       </c>
       <c r="AC3" t="n">
-        <v>2586.009613211011</v>
+        <v>2687.544621397279</v>
       </c>
       <c r="AD3" t="n">
-        <v>2089433.20666741</v>
+        <v>2171471.036944542</v>
       </c>
       <c r="AE3" t="n">
-        <v>2858854.692649741</v>
+        <v>2971102.47128855</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.091975491844424e-06</v>
+        <v>2.373797223488243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.353125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2586009.613211011</v>
+        <v>2687544.621397279</v>
       </c>
     </row>
     <row r="4">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1798.9359057427</v>
+        <v>1880.888395165259</v>
       </c>
       <c r="AB4" t="n">
-        <v>2461.383469688131</v>
+        <v>2573.514481204742</v>
       </c>
       <c r="AC4" t="n">
-        <v>2226.472485914492</v>
+        <v>2327.901871068821</v>
       </c>
       <c r="AD4" t="n">
-        <v>1798935.9057427</v>
+        <v>1880888.395165259</v>
       </c>
       <c r="AE4" t="n">
-        <v>2461383.469688131</v>
+        <v>2573514.481204743</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.154545516102385e-06</v>
+        <v>2.509815431741494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.46666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2226472.485914492</v>
+        <v>2327901.871068821</v>
       </c>
     </row>
     <row r="5">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1781.603158964636</v>
+        <v>1863.555648387196</v>
       </c>
       <c r="AB5" t="n">
-        <v>2437.668040879565</v>
+        <v>2549.799052396176</v>
       </c>
       <c r="AC5" t="n">
-        <v>2205.020424346602</v>
+        <v>2306.449809500931</v>
       </c>
       <c r="AD5" t="n">
-        <v>1781603.158964636</v>
+        <v>1863555.648387196</v>
       </c>
       <c r="AE5" t="n">
-        <v>2437668.040879565</v>
+        <v>2549799.052396176</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160202531994201e-06</v>
+        <v>2.522112968378089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2205020.424346602</v>
+        <v>2306449.809500931</v>
       </c>
     </row>
     <row r="6">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1797.402586081869</v>
+        <v>1879.355075504429</v>
       </c>
       <c r="AB6" t="n">
-        <v>2459.285514082895</v>
+        <v>2571.416525599505</v>
       </c>
       <c r="AC6" t="n">
-        <v>2224.57475624772</v>
+        <v>2326.004141402048</v>
       </c>
       <c r="AD6" t="n">
-        <v>1797402.586081869</v>
+        <v>1879355.075504429</v>
       </c>
       <c r="AE6" t="n">
-        <v>2459285.514082895</v>
+        <v>2571416.525599505</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.160202531994201e-06</v>
+        <v>2.522112968378089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2224574.75624772</v>
+        <v>2326004.141402049</v>
       </c>
     </row>
   </sheetData>
@@ -42478,28 +42478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1528.284228903251</v>
+        <v>1613.810284118044</v>
       </c>
       <c r="AB2" t="n">
-        <v>2091.06590512712</v>
+        <v>2208.086427015262</v>
       </c>
       <c r="AC2" t="n">
-        <v>1891.497509971218</v>
+        <v>1997.349757489689</v>
       </c>
       <c r="AD2" t="n">
-        <v>1528284.228903251</v>
+        <v>1613810.284118044</v>
       </c>
       <c r="AE2" t="n">
-        <v>2091065.905127121</v>
+        <v>2208086.427015262</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.136512544437842e-06</v>
+        <v>2.703225731327614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1891497.509971218</v>
+        <v>1997349.757489689</v>
       </c>
     </row>
     <row r="3">
@@ -42584,28 +42584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1463.671140490999</v>
+        <v>1539.684907873303</v>
       </c>
       <c r="AB3" t="n">
-        <v>2002.659427033197</v>
+        <v>2106.664817056404</v>
       </c>
       <c r="AC3" t="n">
-        <v>1811.528422067307</v>
+        <v>1905.607683639181</v>
       </c>
       <c r="AD3" t="n">
-        <v>1463671.140490999</v>
+        <v>1539684.907873303</v>
       </c>
       <c r="AE3" t="n">
-        <v>2002659.427033197</v>
+        <v>2106664.817056404</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.163743215730832e-06</v>
+        <v>2.767994617232824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1811528.422067307</v>
+        <v>1905607.683639181</v>
       </c>
     </row>
   </sheetData>
@@ -42881,28 +42881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8945.275821384204</v>
+        <v>9117.954073700916</v>
       </c>
       <c r="AB2" t="n">
-        <v>12239.32101653567</v>
+        <v>12475.58701938225</v>
       </c>
       <c r="AC2" t="n">
-        <v>11071.21739671198</v>
+        <v>11284.93450384829</v>
       </c>
       <c r="AD2" t="n">
-        <v>8945275.821384205</v>
+        <v>9117954.073700916</v>
       </c>
       <c r="AE2" t="n">
-        <v>12239321.01653567</v>
+        <v>12475587.01938225</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.443911220063348e-07</v>
+        <v>1.056433540910746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.44583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>11071217.39671198</v>
+        <v>11284934.50384829</v>
       </c>
     </row>
     <row r="3">
@@ -42987,28 +42987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4300.387353785137</v>
+        <v>4415.44932459608</v>
       </c>
       <c r="AB3" t="n">
-        <v>5883.979697149463</v>
+        <v>6041.412561788899</v>
       </c>
       <c r="AC3" t="n">
-        <v>5322.420933070668</v>
+        <v>5464.828626067324</v>
       </c>
       <c r="AD3" t="n">
-        <v>4300387.353785137</v>
+        <v>4415449.32459608</v>
       </c>
       <c r="AE3" t="n">
-        <v>5883979.697149463</v>
+        <v>6041412.5617889</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.265882157767186e-07</v>
+        <v>1.604059067770642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.38958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5322420.933070668</v>
+        <v>5464828.626067324</v>
       </c>
     </row>
     <row r="4">
@@ -43093,28 +43093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3506.93671897509</v>
+        <v>3610.47543348488</v>
       </c>
       <c r="AB4" t="n">
-        <v>4798.345534030787</v>
+        <v>4940.011771028795</v>
       </c>
       <c r="AC4" t="n">
-        <v>4340.398170782962</v>
+        <v>4468.543980951687</v>
       </c>
       <c r="AD4" t="n">
-        <v>3506936.718975089</v>
+        <v>3610475.43348488</v>
       </c>
       <c r="AE4" t="n">
-        <v>4798345.534030788</v>
+        <v>4940011.771028795</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.276806315930447e-07</v>
+        <v>1.800236805582502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.27708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4340398.170782962</v>
+        <v>4468543.980951686</v>
       </c>
     </row>
     <row r="5">
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3160.318477870572</v>
+        <v>3252.419276933781</v>
       </c>
       <c r="AB5" t="n">
-        <v>4324.087164833997</v>
+        <v>4450.103541312775</v>
       </c>
       <c r="AC5" t="n">
-        <v>3911.40235471653</v>
+        <v>4025.391905089263</v>
       </c>
       <c r="AD5" t="n">
-        <v>3160318.477870572</v>
+        <v>3252419.276933781</v>
       </c>
       <c r="AE5" t="n">
-        <v>4324087.164833997</v>
+        <v>4450103.541312775</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.799963414523307e-07</v>
+        <v>1.90175953139077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3911402.35471653</v>
+        <v>4025391.905089263</v>
       </c>
     </row>
     <row r="6">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2948.019878270556</v>
+        <v>3040.205928679784</v>
       </c>
       <c r="AB6" t="n">
-        <v>4033.61085490804</v>
+        <v>4159.743876039466</v>
       </c>
       <c r="AC6" t="n">
-        <v>3648.648696123855</v>
+        <v>3762.7437587473</v>
       </c>
       <c r="AD6" t="n">
-        <v>2948019.878270556</v>
+        <v>3040205.928679784</v>
       </c>
       <c r="AE6" t="n">
-        <v>4033610.85490804</v>
+        <v>4159743.876039466</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.012001246307423e-06</v>
+        <v>1.96386755188524e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.8375</v>
       </c>
       <c r="AH6" t="n">
-        <v>3648648.696123855</v>
+        <v>3762743.758747301</v>
       </c>
     </row>
     <row r="7">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2810.23319680637</v>
+        <v>2902.4192472156</v>
       </c>
       <c r="AB7" t="n">
-        <v>3845.085038609359</v>
+        <v>3971.218059740785</v>
       </c>
       <c r="AC7" t="n">
-        <v>3478.115519135082</v>
+        <v>3592.210581758527</v>
       </c>
       <c r="AD7" t="n">
-        <v>2810233.19680637</v>
+        <v>2902419.2472156</v>
       </c>
       <c r="AE7" t="n">
-        <v>3845085.038609359</v>
+        <v>3971218.059740785</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.033389139455778e-06</v>
+        <v>2.005372430965679e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.51041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3478115.519135082</v>
+        <v>3592210.581758528</v>
       </c>
     </row>
     <row r="8">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2697.097974263203</v>
+        <v>2789.11343247184</v>
       </c>
       <c r="AB8" t="n">
-        <v>3690.288435952029</v>
+        <v>3816.188045308609</v>
       </c>
       <c r="AC8" t="n">
-        <v>3338.092486976977</v>
+        <v>3451.976414317772</v>
       </c>
       <c r="AD8" t="n">
-        <v>2697097.974263203</v>
+        <v>2789113.43247184</v>
       </c>
       <c r="AE8" t="n">
-        <v>3690288.43595203</v>
+        <v>3816188.045308609</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.049083852413564e-06</v>
+        <v>2.03582924870816e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.27708333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3338092.486976977</v>
+        <v>3451976.414317772</v>
       </c>
     </row>
     <row r="9">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2594.638935204299</v>
+        <v>2675.301818820925</v>
       </c>
       <c r="AB9" t="n">
-        <v>3550.099458537843</v>
+        <v>3660.465974497389</v>
       </c>
       <c r="AC9" t="n">
-        <v>3211.28294881074</v>
+        <v>3311.116239387482</v>
       </c>
       <c r="AD9" t="n">
-        <v>2594638.935204299</v>
+        <v>2675301.818820925</v>
       </c>
       <c r="AE9" t="n">
-        <v>3550099.458537843</v>
+        <v>3660465.974497389</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.061855040408625e-06</v>
+        <v>2.060612737655472e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.09375</v>
       </c>
       <c r="AH9" t="n">
-        <v>3211282.94881074</v>
+        <v>3311116.239387481</v>
       </c>
     </row>
     <row r="10">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2492.549978896076</v>
+        <v>2584.650688450733</v>
       </c>
       <c r="AB10" t="n">
-        <v>3410.416844670038</v>
+        <v>3536.433098679267</v>
       </c>
       <c r="AC10" t="n">
-        <v>3084.931447564705</v>
+        <v>3198.920887156211</v>
       </c>
       <c r="AD10" t="n">
-        <v>2492549.978896076</v>
+        <v>2584650.688450733</v>
       </c>
       <c r="AE10" t="n">
-        <v>3410416.844670038</v>
+        <v>3536433.098679267</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.071702703440962e-06</v>
+        <v>2.079722897807617e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.95625</v>
       </c>
       <c r="AH10" t="n">
-        <v>3084931.447564705</v>
+        <v>3198920.887156211</v>
       </c>
     </row>
     <row r="11">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2425.891758526907</v>
+        <v>2517.992468081563</v>
       </c>
       <c r="AB11" t="n">
-        <v>3319.2121268078</v>
+        <v>3445.228380817028</v>
       </c>
       <c r="AC11" t="n">
-        <v>3002.431179968617</v>
+        <v>3116.420619560123</v>
       </c>
       <c r="AD11" t="n">
-        <v>2425891.758526907</v>
+        <v>2517992.468081563</v>
       </c>
       <c r="AE11" t="n">
-        <v>3319212.1268078</v>
+        <v>3445228.380817028</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.078472971775692e-06</v>
+        <v>2.092861132912216e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.86145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3002431.179968616</v>
+        <v>3116420.619560123</v>
       </c>
     </row>
     <row r="12">
@@ -43941,28 +43941,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2402.595189675432</v>
+        <v>2494.695899230089</v>
       </c>
       <c r="AB12" t="n">
-        <v>3287.336733533129</v>
+        <v>3413.352987542357</v>
       </c>
       <c r="AC12" t="n">
-        <v>2973.597929490686</v>
+        <v>3087.587369082193</v>
       </c>
       <c r="AD12" t="n">
-        <v>2402595.189675432</v>
+        <v>2494695.899230089</v>
       </c>
       <c r="AE12" t="n">
-        <v>3287336.733533129</v>
+        <v>3413352.987542357</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.080781017798896e-06</v>
+        <v>2.097340076697875e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.83020833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2973597.929490685</v>
+        <v>3087587.369082193</v>
       </c>
     </row>
     <row r="13">
@@ -44047,28 +44047,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2408.685035069048</v>
+        <v>2500.785744623705</v>
       </c>
       <c r="AB13" t="n">
-        <v>3295.669128665693</v>
+        <v>3421.685382674922</v>
       </c>
       <c r="AC13" t="n">
-        <v>2981.135092526388</v>
+        <v>3095.124532117894</v>
       </c>
       <c r="AD13" t="n">
-        <v>2408685.035069048</v>
+        <v>2500785.744623705</v>
       </c>
       <c r="AE13" t="n">
-        <v>3295669.128665693</v>
+        <v>3421685.382674922</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.081088757268657e-06</v>
+        <v>2.09793726920263e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.82708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2981135.092526388</v>
+        <v>3095124.532117894</v>
       </c>
     </row>
     <row r="14">
@@ -44153,28 +44153,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2421.214087414497</v>
+        <v>2513.314796969154</v>
       </c>
       <c r="AB14" t="n">
-        <v>3312.811930827516</v>
+        <v>3438.828184836744</v>
       </c>
       <c r="AC14" t="n">
-        <v>2996.641809709959</v>
+        <v>3110.631249301466</v>
       </c>
       <c r="AD14" t="n">
-        <v>2421214.087414497</v>
+        <v>2513314.796969154</v>
       </c>
       <c r="AE14" t="n">
-        <v>3312811.930827516</v>
+        <v>3438828.184836744</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.081088757268657e-06</v>
+        <v>2.09793726920263e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.82708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2996641.809709959</v>
+        <v>3110631.249301466</v>
       </c>
     </row>
   </sheetData>
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14580.69491036695</v>
+        <v>14808.35935289074</v>
       </c>
       <c r="AB2" t="n">
-        <v>19949.950031226</v>
+        <v>20261.45056533342</v>
       </c>
       <c r="AC2" t="n">
-        <v>18045.95480017577</v>
+        <v>18327.7261605017</v>
       </c>
       <c r="AD2" t="n">
-        <v>14580694.91036695</v>
+        <v>14808359.35289074</v>
       </c>
       <c r="AE2" t="n">
-        <v>19949950.031226</v>
+        <v>20261450.56533342</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.205044200129496e-07</v>
+        <v>7.890312260751749e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.73020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>18045954.80017577</v>
+        <v>18327726.1605017</v>
       </c>
     </row>
     <row r="3">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5571.019426810425</v>
+        <v>5702.703972355202</v>
       </c>
       <c r="AB3" t="n">
-        <v>7622.514555793568</v>
+        <v>7802.691160520077</v>
       </c>
       <c r="AC3" t="n">
-        <v>6895.032464854712</v>
+        <v>7058.01326730557</v>
       </c>
       <c r="AD3" t="n">
-        <v>5571019.426810425</v>
+        <v>5702703.972355202</v>
       </c>
       <c r="AE3" t="n">
-        <v>7622514.555793568</v>
+        <v>7802691.160520077</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.311379742890882e-07</v>
+        <v>1.371901613461455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.12291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6895032.464854712</v>
+        <v>7058013.26730557</v>
       </c>
     </row>
     <row r="4">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4362.934146523867</v>
+        <v>4470.730371514966</v>
       </c>
       <c r="AB4" t="n">
-        <v>5969.55897834435</v>
+        <v>6117.050529010991</v>
       </c>
       <c r="AC4" t="n">
-        <v>5399.832647779586</v>
+        <v>5533.24781185629</v>
       </c>
       <c r="AD4" t="n">
-        <v>4362934.146523867</v>
+        <v>4470730.371514967</v>
       </c>
       <c r="AE4" t="n">
-        <v>5969558.97834435</v>
+        <v>6117050.529010992</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.448639581219275e-07</v>
+        <v>1.585296165788556e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.28229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>5399832.647779587</v>
+        <v>5533247.81185629</v>
       </c>
     </row>
     <row r="5">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3873.829507271818</v>
+        <v>3969.724242413364</v>
       </c>
       <c r="AB5" t="n">
-        <v>5300.344433145857</v>
+        <v>5431.551840343664</v>
       </c>
       <c r="AC5" t="n">
-        <v>4794.48699952635</v>
+        <v>4913.172155931946</v>
       </c>
       <c r="AD5" t="n">
-        <v>3873829.507271818</v>
+        <v>3969724.242413364</v>
       </c>
       <c r="AE5" t="n">
-        <v>5300344.433145856</v>
+        <v>5431551.840343663</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.050631099291412e-07</v>
+        <v>1.698253386446709e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4794486.99952635</v>
+        <v>4913172.155931946</v>
       </c>
     </row>
     <row r="6">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3599.832083386611</v>
+        <v>3695.641477673586</v>
       </c>
       <c r="AB6" t="n">
-        <v>4925.449069872876</v>
+        <v>5056.539709948485</v>
       </c>
       <c r="AC6" t="n">
-        <v>4455.371123555208</v>
+        <v>4573.950656928866</v>
       </c>
       <c r="AD6" t="n">
-        <v>3599832.083386611</v>
+        <v>3695641.477673586</v>
       </c>
       <c r="AE6" t="n">
-        <v>4925449.069872876</v>
+        <v>5056539.709948486</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.418350056143356e-07</v>
+        <v>1.76725188576499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.39791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>4455371.123555209</v>
+        <v>4573950.656928866</v>
       </c>
     </row>
     <row r="7">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3412.955106689819</v>
+        <v>3520.665901317796</v>
       </c>
       <c r="AB7" t="n">
-        <v>4669.755745925961</v>
+        <v>4817.130407000856</v>
       </c>
       <c r="AC7" t="n">
-        <v>4224.080811577964</v>
+        <v>4357.390241841502</v>
       </c>
       <c r="AD7" t="n">
-        <v>3412955.106689819</v>
+        <v>3520665.901317796</v>
       </c>
       <c r="AE7" t="n">
-        <v>4669755.74592596</v>
+        <v>4817130.407000856</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.668932732385205e-07</v>
+        <v>1.814271024413334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.97395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4224080.811577964</v>
+        <v>4357390.241841502</v>
       </c>
     </row>
     <row r="8">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3283.845295777647</v>
+        <v>3379.739941410643</v>
       </c>
       <c r="AB8" t="n">
-        <v>4493.102006713057</v>
+        <v>4624.309291441316</v>
       </c>
       <c r="AC8" t="n">
-        <v>4064.286657300466</v>
+        <v>4182.971702924836</v>
       </c>
       <c r="AD8" t="n">
-        <v>3283845.295777647</v>
+        <v>3379739.941410643</v>
       </c>
       <c r="AE8" t="n">
-        <v>4493102.006713057</v>
+        <v>4624309.291441316</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.852792210811176e-07</v>
+        <v>1.848770274072474e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.67604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4064286.657300466</v>
+        <v>4182971.702924836</v>
       </c>
     </row>
     <row r="9">
@@ -45192,28 +45192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3177.440310494011</v>
+        <v>3273.164363926415</v>
       </c>
       <c r="AB9" t="n">
-        <v>4347.514011591333</v>
+        <v>4478.487884544745</v>
       </c>
       <c r="AC9" t="n">
-        <v>3932.59337609913</v>
+        <v>4051.067286440849</v>
       </c>
       <c r="AD9" t="n">
-        <v>3177440.310494011</v>
+        <v>3273164.363926415</v>
       </c>
       <c r="AE9" t="n">
-        <v>4347514.011591333</v>
+        <v>4478487.884544745</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.996617770547625e-07</v>
+        <v>1.875757590338092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.45</v>
       </c>
       <c r="AH9" t="n">
-        <v>3932593.37609913</v>
+        <v>4051067.286440849</v>
       </c>
     </row>
     <row r="10">
@@ -45298,28 +45298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3091.845110910393</v>
+        <v>3187.569164342795</v>
       </c>
       <c r="AB10" t="n">
-        <v>4230.398883327322</v>
+        <v>4361.372756280734</v>
       </c>
       <c r="AC10" t="n">
-        <v>3826.655551304527</v>
+        <v>3945.129461646245</v>
       </c>
       <c r="AD10" t="n">
-        <v>3091845.110910392</v>
+        <v>3187569.164342795</v>
       </c>
       <c r="AE10" t="n">
-        <v>4230398.883327322</v>
+        <v>4361372.756280734</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.010634036251151e-06</v>
+        <v>1.89634585223145e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.28333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3826655.551304527</v>
+        <v>3945129.461646245</v>
       </c>
     </row>
     <row r="11">
@@ -45404,28 +45404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3018.410404646042</v>
+        <v>3102.318309083465</v>
       </c>
       <c r="AB11" t="n">
-        <v>4129.922278505841</v>
+        <v>4244.728775112615</v>
       </c>
       <c r="AC11" t="n">
-        <v>3735.76829262741</v>
+        <v>3839.61781832996</v>
       </c>
       <c r="AD11" t="n">
-        <v>3018410.404646042</v>
+        <v>3102318.309083465</v>
       </c>
       <c r="AE11" t="n">
-        <v>4129922.278505841</v>
+        <v>4244728.775112615</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.019233915080753e-06</v>
+        <v>1.912482598039757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.153125</v>
       </c>
       <c r="AH11" t="n">
-        <v>3735768.29262741</v>
+        <v>3839617.81832996</v>
       </c>
     </row>
     <row r="12">
@@ -45510,28 +45510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2940.889113885933</v>
+        <v>3024.797018323356</v>
       </c>
       <c r="AB12" t="n">
-        <v>4023.854228489876</v>
+        <v>4138.660725096651</v>
       </c>
       <c r="AC12" t="n">
-        <v>3639.82322843753</v>
+        <v>3743.67275414008</v>
       </c>
       <c r="AD12" t="n">
-        <v>2940889.113885933</v>
+        <v>3024797.018323356</v>
       </c>
       <c r="AE12" t="n">
-        <v>4023854.228489876</v>
+        <v>4138660.725096651</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.026795877499886e-06</v>
+        <v>1.926671805560855e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.040625</v>
       </c>
       <c r="AH12" t="n">
-        <v>3639823.22843753</v>
+        <v>3743672.75414008</v>
       </c>
     </row>
     <row r="13">
@@ -45616,28 +45616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2871.739338056534</v>
+        <v>2967.548642834958</v>
       </c>
       <c r="AB13" t="n">
-        <v>3929.240454527283</v>
+        <v>4060.330972133344</v>
       </c>
       <c r="AC13" t="n">
-        <v>3554.239260270664</v>
+        <v>3672.818682863094</v>
       </c>
       <c r="AD13" t="n">
-        <v>2871739.338056534</v>
+        <v>2967548.642834958</v>
       </c>
       <c r="AE13" t="n">
-        <v>3929240.454527283</v>
+        <v>4060330.972133344</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.032875102189777e-06</v>
+        <v>1.938078815528797e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.953125</v>
       </c>
       <c r="AH13" t="n">
-        <v>3554239.260270664</v>
+        <v>3672818.682863094</v>
       </c>
     </row>
     <row r="14">
@@ -45722,28 +45722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2816.868904364032</v>
+        <v>2912.678209142456</v>
       </c>
       <c r="AB14" t="n">
-        <v>3854.164306436508</v>
+        <v>3985.254824042569</v>
       </c>
       <c r="AC14" t="n">
-        <v>3486.32827438364</v>
+        <v>3604.907696976071</v>
       </c>
       <c r="AD14" t="n">
-        <v>2816868.904364032</v>
+        <v>2912678.209142456</v>
       </c>
       <c r="AE14" t="n">
-        <v>3854164.306436508</v>
+        <v>3985254.824042569</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.037768136696274e-06</v>
+        <v>1.947260067454213e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.88229166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>3486328.27438364</v>
+        <v>3604907.696976071</v>
       </c>
     </row>
     <row r="15">
@@ -45828,28 +45828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2755.680979473544</v>
+        <v>2851.490284251968</v>
       </c>
       <c r="AB15" t="n">
-        <v>3770.444288180607</v>
+        <v>3901.534805786669</v>
       </c>
       <c r="AC15" t="n">
-        <v>3410.598377168303</v>
+        <v>3529.177799760733</v>
       </c>
       <c r="AD15" t="n">
-        <v>2755680.979473544</v>
+        <v>2851490.284251968</v>
       </c>
       <c r="AE15" t="n">
-        <v>3770444.288180607</v>
+        <v>3901534.805786669</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.042512897429848e-06</v>
+        <v>1.956163099624314e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.81458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>3410598.377168303</v>
+        <v>3529177.799760733</v>
       </c>
     </row>
     <row r="16">
@@ -45934,28 +45934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2706.164817256719</v>
+        <v>2801.974122035143</v>
       </c>
       <c r="AB16" t="n">
-        <v>3702.69409053664</v>
+        <v>3833.784608142701</v>
       </c>
       <c r="AC16" t="n">
-        <v>3349.314163299478</v>
+        <v>3467.893585891908</v>
       </c>
       <c r="AD16" t="n">
-        <v>2706164.817256719</v>
+        <v>2801974.122035143</v>
       </c>
       <c r="AE16" t="n">
-        <v>3702694.09053664</v>
+        <v>3833784.608142701</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.046071467980028e-06</v>
+        <v>1.962840373751889e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.76458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3349314.163299478</v>
+        <v>3467893.585891908</v>
       </c>
     </row>
     <row r="17">
@@ -46040,28 +46040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2692.678744621638</v>
+        <v>2788.488049400062</v>
       </c>
       <c r="AB17" t="n">
-        <v>3684.241850993787</v>
+        <v>3815.332368599848</v>
       </c>
       <c r="AC17" t="n">
-        <v>3332.622979600715</v>
+        <v>3451.202402193145</v>
       </c>
       <c r="AD17" t="n">
-        <v>2692678.744621638</v>
+        <v>2788488.049400062</v>
       </c>
       <c r="AE17" t="n">
-        <v>3684241.850993787</v>
+        <v>3815332.368599848</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.046961110617573e-06</v>
+        <v>1.964509692283783e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.75104166666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3332622.979600715</v>
+        <v>3451202.402193145</v>
       </c>
     </row>
     <row r="18">
@@ -46146,28 +46146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2704.4914844549</v>
+        <v>2800.300789233325</v>
       </c>
       <c r="AB18" t="n">
-        <v>3700.404562774959</v>
+        <v>3831.49508038102</v>
       </c>
       <c r="AC18" t="n">
-        <v>3347.243144854</v>
+        <v>3465.822567446431</v>
       </c>
       <c r="AD18" t="n">
-        <v>2704491.4844549</v>
+        <v>2800300.789233325</v>
       </c>
       <c r="AE18" t="n">
-        <v>3700404.562774959</v>
+        <v>3831495.08038102</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.04755420570927e-06</v>
+        <v>1.965622571305046e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.74375</v>
       </c>
       <c r="AH18" t="n">
-        <v>3347243.144854</v>
+        <v>3465822.567446431</v>
       </c>
     </row>
     <row r="19">
@@ -46252,28 +46252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2715.928455552169</v>
+        <v>2811.737760330593</v>
       </c>
       <c r="AB19" t="n">
-        <v>3716.053131193797</v>
+        <v>3847.143648799858</v>
       </c>
       <c r="AC19" t="n">
-        <v>3361.398235865847</v>
+        <v>3479.977658458277</v>
       </c>
       <c r="AD19" t="n">
-        <v>2715928.455552169</v>
+        <v>2811737.760330593</v>
       </c>
       <c r="AE19" t="n">
-        <v>3716053.131193797</v>
+        <v>3847143.648799858</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.04755420570927e-06</v>
+        <v>1.965622571305046e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.74479166666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>3361398.235865847</v>
+        <v>3479977.658458277</v>
       </c>
     </row>
     <row r="20">
@@ -46358,28 +46358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2727.781750258157</v>
+        <v>2823.591055036581</v>
       </c>
       <c r="AB20" t="n">
-        <v>3732.271331940987</v>
+        <v>3863.361849547048</v>
       </c>
       <c r="AC20" t="n">
-        <v>3376.068594296113</v>
+        <v>3494.648016888543</v>
       </c>
       <c r="AD20" t="n">
-        <v>2727781.750258157</v>
+        <v>2823591.055036581</v>
       </c>
       <c r="AE20" t="n">
-        <v>3732271.331940987</v>
+        <v>3863361.849547048</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.047405931936346e-06</v>
+        <v>1.96534435154973e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.74583333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>3376068.594296113</v>
+        <v>3494648.016888543</v>
       </c>
     </row>
   </sheetData>
@@ -46655,28 +46655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1302.340411303243</v>
+        <v>1384.782147972343</v>
       </c>
       <c r="AB2" t="n">
-        <v>1781.919605949059</v>
+        <v>1894.720027132453</v>
       </c>
       <c r="AC2" t="n">
-        <v>1611.855699697155</v>
+        <v>1713.890606999191</v>
       </c>
       <c r="AD2" t="n">
-        <v>1302340.411303243</v>
+        <v>1384782.147972343</v>
       </c>
       <c r="AE2" t="n">
-        <v>1781919.605949059</v>
+        <v>1894720.027132452</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.1246579305865e-06</v>
+        <v>2.8126841346332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.64791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1611855.699697155</v>
+        <v>1713890.606999191</v>
       </c>
     </row>
   </sheetData>
@@ -46952,28 +46952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4807.568511493879</v>
+        <v>4937.250534331423</v>
       </c>
       <c r="AB2" t="n">
-        <v>6577.927332380119</v>
+        <v>6755.363997193524</v>
       </c>
       <c r="AC2" t="n">
-        <v>5950.139179956505</v>
+        <v>6110.641538514035</v>
       </c>
       <c r="AD2" t="n">
-        <v>4807568.511493878</v>
+        <v>4937250.534331423</v>
       </c>
       <c r="AE2" t="n">
-        <v>6577927.332380119</v>
+        <v>6755363.997193524</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.395845435685528e-07</v>
+        <v>1.523014216451334e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>5950139.179956505</v>
+        <v>6110641.538514036</v>
       </c>
     </row>
     <row r="3">
@@ -47058,28 +47058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2913.490845672086</v>
+        <v>3010.64577624058</v>
       </c>
       <c r="AB3" t="n">
-        <v>3986.366709193403</v>
+        <v>4119.298371370258</v>
       </c>
       <c r="AC3" t="n">
-        <v>3605.913465368648</v>
+        <v>3726.1583162781</v>
       </c>
       <c r="AD3" t="n">
-        <v>2913490.845672086</v>
+        <v>3010645.77624058</v>
       </c>
       <c r="AE3" t="n">
-        <v>3986366.709193402</v>
+        <v>4119298.371370258</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.735930776674125e-07</v>
+        <v>2.004904119779831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.47291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3605913.465368649</v>
+        <v>3726158.3162781</v>
       </c>
     </row>
     <row r="4">
@@ -47164,28 +47164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2474.244308849673</v>
+        <v>2560.670633298395</v>
       </c>
       <c r="AB4" t="n">
-        <v>3385.370219323382</v>
+        <v>3503.622529294468</v>
       </c>
       <c r="AC4" t="n">
-        <v>3062.275236987974</v>
+        <v>3169.241712463575</v>
       </c>
       <c r="AD4" t="n">
-        <v>2474244.308849673</v>
+        <v>2560670.633298395</v>
       </c>
       <c r="AE4" t="n">
-        <v>3385370.219323382</v>
+        <v>3503622.529294468</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.05540624974245e-06</v>
+        <v>2.173380631690213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.11770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3062275.236987974</v>
+        <v>3169241.712463575</v>
       </c>
     </row>
     <row r="5">
@@ -47270,28 +47270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2242.400135721775</v>
+        <v>2328.911711516518</v>
       </c>
       <c r="AB5" t="n">
-        <v>3068.150793406729</v>
+        <v>3186.519748030463</v>
       </c>
       <c r="AC5" t="n">
-        <v>2775.330787860558</v>
+        <v>2882.402775586871</v>
       </c>
       <c r="AD5" t="n">
-        <v>2242400.135721775</v>
+        <v>2328911.711516518</v>
       </c>
       <c r="AE5" t="n">
-        <v>3068150.793406729</v>
+        <v>3186519.748030463</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.096884384886281e-06</v>
+        <v>2.258795869265536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.50729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2775330.787860558</v>
+        <v>2882402.77558687</v>
       </c>
     </row>
     <row r="6">
@@ -47376,28 +47376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2085.451482998191</v>
+        <v>2161.149201327142</v>
       </c>
       <c r="AB6" t="n">
-        <v>2853.406722664265</v>
+        <v>2956.979680429575</v>
       </c>
       <c r="AC6" t="n">
-        <v>2581.081589834674</v>
+        <v>2674.769689876423</v>
       </c>
       <c r="AD6" t="n">
-        <v>2085451.482998191</v>
+        <v>2161149.201327142</v>
       </c>
       <c r="AE6" t="n">
-        <v>2853406.722664265</v>
+        <v>2956979.680429575</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.121869245819377e-06</v>
+        <v>2.310246780088467e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.1625</v>
       </c>
       <c r="AH6" t="n">
-        <v>2581081.589834674</v>
+        <v>2674769.689876423</v>
       </c>
     </row>
     <row r="7">
@@ -47482,28 +47482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2038.263873110638</v>
+        <v>2113.961591439589</v>
       </c>
       <c r="AB7" t="n">
-        <v>2788.84255304569</v>
+        <v>2892.415510811</v>
       </c>
       <c r="AC7" t="n">
-        <v>2522.679333948115</v>
+        <v>2616.367433989863</v>
       </c>
       <c r="AD7" t="n">
-        <v>2038263.873110638</v>
+        <v>2113961.591439589</v>
       </c>
       <c r="AE7" t="n">
-        <v>2788842.55304569</v>
+        <v>2892415.510811</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.129707633563093e-06</v>
+        <v>2.326388242307426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.05833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2522679.333948115</v>
+        <v>2616367.433989863</v>
       </c>
     </row>
     <row r="8">
@@ -47588,28 +47588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2049.806386973531</v>
+        <v>2125.504105302482</v>
       </c>
       <c r="AB8" t="n">
-        <v>2804.635529732674</v>
+        <v>2908.208487497984</v>
       </c>
       <c r="AC8" t="n">
-        <v>2536.965051105674</v>
+        <v>2630.653151147423</v>
       </c>
       <c r="AD8" t="n">
-        <v>2049806.386973531</v>
+        <v>2125504.105302482</v>
       </c>
       <c r="AE8" t="n">
-        <v>2804635.529732673</v>
+        <v>2908208.487497984</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.130034233052414e-06</v>
+        <v>2.327060803233216e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.053125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2536965.051105674</v>
+        <v>2630653.151147423</v>
       </c>
     </row>
     <row r="9">
@@ -47694,28 +47694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2063.535463623377</v>
+        <v>2139.233181952329</v>
       </c>
       <c r="AB9" t="n">
-        <v>2823.420258089108</v>
+        <v>2926.993215854418</v>
       </c>
       <c r="AC9" t="n">
-        <v>2553.956991352303</v>
+        <v>2647.645091394052</v>
       </c>
       <c r="AD9" t="n">
-        <v>2063535.463623377</v>
+        <v>2139233.181952329</v>
       </c>
       <c r="AE9" t="n">
-        <v>2823420.258089108</v>
+        <v>2926993.215854418</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.129870933307754e-06</v>
+        <v>2.32672452277032e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.05416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2553956.991352303</v>
+        <v>2647645.091394051</v>
       </c>
     </row>
   </sheetData>
@@ -47991,28 +47991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7034.743420511111</v>
+        <v>7192.31638225937</v>
       </c>
       <c r="AB2" t="n">
-        <v>9625.246298920094</v>
+        <v>9840.844576812524</v>
       </c>
       <c r="AC2" t="n">
-        <v>8706.626301268823</v>
+        <v>8901.648182113275</v>
       </c>
       <c r="AD2" t="n">
-        <v>7034743.420511112</v>
+        <v>7192316.38225937</v>
       </c>
       <c r="AE2" t="n">
-        <v>9625246.298920093</v>
+        <v>9840844.576812524</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.152122362071559e-07</v>
+        <v>1.218848707748001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.61770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>8706626.301268823</v>
+        <v>8901648.182113275</v>
       </c>
     </row>
     <row r="3">
@@ -48097,28 +48097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3724.191552435011</v>
+        <v>3836.719284868175</v>
       </c>
       <c r="AB3" t="n">
-        <v>5095.603181777475</v>
+        <v>5249.568589665725</v>
       </c>
       <c r="AC3" t="n">
-        <v>4609.285965832421</v>
+        <v>4748.55713128362</v>
       </c>
       <c r="AD3" t="n">
-        <v>3724191.552435011</v>
+        <v>3836719.284868175</v>
       </c>
       <c r="AE3" t="n">
-        <v>5095603.181777474</v>
+        <v>5249568.589665725</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.809185176255289e-07</v>
+        <v>1.745261770894978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.59166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>4609285.965832422</v>
+        <v>4748557.13128362</v>
       </c>
     </row>
     <row r="4">
@@ -48203,28 +48203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3092.157932843195</v>
+        <v>3193.424357947586</v>
       </c>
       <c r="AB4" t="n">
-        <v>4230.826900096515</v>
+        <v>4369.38409048372</v>
       </c>
       <c r="AC4" t="n">
-        <v>3827.042718753992</v>
+        <v>3952.376205356875</v>
       </c>
       <c r="AD4" t="n">
-        <v>3092157.932843195</v>
+        <v>3193424.357947586</v>
       </c>
       <c r="AE4" t="n">
-        <v>4230826.900096514</v>
+        <v>4369384.090483719</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.739943274478229e-07</v>
+        <v>1.929662086506227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.81354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3827042.718753992</v>
+        <v>3952376.205356875</v>
       </c>
     </row>
     <row r="5">
@@ -48309,28 +48309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2809.660893828757</v>
+        <v>2899.666101112924</v>
       </c>
       <c r="AB5" t="n">
-        <v>3844.301988427162</v>
+        <v>3967.451083782871</v>
       </c>
       <c r="AC5" t="n">
-        <v>3477.407202163256</v>
+        <v>3588.803120699053</v>
       </c>
       <c r="AD5" t="n">
-        <v>2809660.893828757</v>
+        <v>2899666.101112924</v>
       </c>
       <c r="AE5" t="n">
-        <v>3844301.988427162</v>
+        <v>3967451.083782871</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.022576126831419e-06</v>
+        <v>2.025911575566828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3477407.202163256</v>
+        <v>3588803.120699053</v>
       </c>
     </row>
     <row r="6">
@@ -48415,28 +48415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2620.430741470103</v>
+        <v>2710.521200100291</v>
       </c>
       <c r="AB6" t="n">
-        <v>3585.388945724905</v>
+        <v>3708.654685733264</v>
       </c>
       <c r="AC6" t="n">
-        <v>3243.204456869774</v>
+        <v>3354.705887656284</v>
       </c>
       <c r="AD6" t="n">
-        <v>2620430.741470103</v>
+        <v>2710521.200100292</v>
       </c>
       <c r="AE6" t="n">
-        <v>3585388.945724905</v>
+        <v>3708654.685733264</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.052133985356066e-06</v>
+        <v>2.084471135254185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.565625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3243204.456869774</v>
+        <v>3354705.887656284</v>
       </c>
     </row>
     <row r="7">
@@ -48521,28 +48521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2487.224050476598</v>
+        <v>2577.143916906194</v>
       </c>
       <c r="AB7" t="n">
-        <v>3403.129674443128</v>
+        <v>3526.16200267664</v>
       </c>
       <c r="AC7" t="n">
-        <v>3078.339754636643</v>
+        <v>3189.630050140502</v>
       </c>
       <c r="AD7" t="n">
-        <v>2487224.050476598</v>
+        <v>2577143.916906194</v>
       </c>
       <c r="AE7" t="n">
-        <v>3403129.674443129</v>
+        <v>3526162.00267664</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.07241570742883e-06</v>
+        <v>2.124652960784338e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3078339.754636643</v>
+        <v>3189630.050140502</v>
       </c>
     </row>
     <row r="8">
@@ -48627,28 +48627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2379.669583481962</v>
+        <v>2458.498824291928</v>
       </c>
       <c r="AB8" t="n">
-        <v>3255.968907732858</v>
+        <v>3363.826552709721</v>
       </c>
       <c r="AC8" t="n">
-        <v>2945.223804959774</v>
+        <v>3042.787667679196</v>
       </c>
       <c r="AD8" t="n">
-        <v>2379669.583481962</v>
+        <v>2458498.824291928</v>
       </c>
       <c r="AE8" t="n">
-        <v>3255968.907732858</v>
+        <v>3363826.552709721</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.086722968735973e-06</v>
+        <v>2.152998279569175e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.06979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2945223.804959774</v>
+        <v>3042787.667679196</v>
       </c>
     </row>
     <row r="9">
@@ -48733,28 +48733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2277.631185490247</v>
+        <v>2367.636303265865</v>
       </c>
       <c r="AB9" t="n">
-        <v>3116.355469984176</v>
+        <v>3239.504442870337</v>
       </c>
       <c r="AC9" t="n">
-        <v>2818.934877761141</v>
+        <v>2930.330685515711</v>
       </c>
       <c r="AD9" t="n">
-        <v>2277631.185490247</v>
+        <v>2367636.303265864</v>
       </c>
       <c r="AE9" t="n">
-        <v>3116355.469984176</v>
+        <v>3239504.442870337</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.096785218446491e-06</v>
+        <v>2.172933448824446e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.93125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2818934.877761141</v>
+        <v>2930330.685515711</v>
       </c>
     </row>
     <row r="10">
@@ -48839,28 +48839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2254.459549647667</v>
+        <v>2344.464667423284</v>
       </c>
       <c r="AB10" t="n">
-        <v>3084.65101556393</v>
+        <v>3207.79998845009</v>
       </c>
       <c r="AC10" t="n">
-        <v>2790.256251973282</v>
+        <v>2901.652059727853</v>
       </c>
       <c r="AD10" t="n">
-        <v>2254459.549647667</v>
+        <v>2344464.667423284</v>
       </c>
       <c r="AE10" t="n">
-        <v>3084651.01556393</v>
+        <v>3207799.98845009</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.099772448829301e-06</v>
+        <v>2.178851702197104e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.89270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2790256.251973283</v>
+        <v>2901652.059727853</v>
       </c>
     </row>
     <row r="11">
@@ -48945,28 +48945,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2266.107811199204</v>
+        <v>2356.112928974821</v>
       </c>
       <c r="AB11" t="n">
-        <v>3100.588680903775</v>
+        <v>3223.737653789935</v>
       </c>
       <c r="AC11" t="n">
-        <v>2804.672848901746</v>
+        <v>2916.068656656316</v>
       </c>
       <c r="AD11" t="n">
-        <v>2266107.811199204</v>
+        <v>2356112.928974821</v>
       </c>
       <c r="AE11" t="n">
-        <v>3100588.680903775</v>
+        <v>3223737.653789935</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.099615226177574e-06</v>
+        <v>2.178540215177491e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.89375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2804672.848901746</v>
+        <v>2916068.656656316</v>
       </c>
     </row>
   </sheetData>
